--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.702888915847593</v>
+        <v>7.702888915847605</v>
       </c>
       <c r="E2">
-        <v>12.03564516340249</v>
+        <v>12.0356451634025</v>
       </c>
       <c r="F2">
-        <v>52.45119852779288</v>
+        <v>52.45119852779293</v>
       </c>
       <c r="G2">
-        <v>42.48185848629183</v>
+        <v>42.48185848629186</v>
       </c>
       <c r="H2">
-        <v>26.66338903802287</v>
+        <v>26.66338903802295</v>
       </c>
       <c r="I2">
-        <v>6.340623943012918</v>
+        <v>6.340623943012896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.62108193528677</v>
+        <v>46.62108193528685</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46523695010135</v>
+        <v>12.46523695010139</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.085128085001354</v>
+        <v>7.085128085001405</v>
       </c>
       <c r="E3">
-        <v>11.47682821978871</v>
+        <v>11.4768282197887</v>
       </c>
       <c r="F3">
-        <v>48.01303994589514</v>
+        <v>48.01303994589504</v>
       </c>
       <c r="G3">
-        <v>38.852158059706</v>
+        <v>38.85215805970594</v>
       </c>
       <c r="H3">
-        <v>25.25621173247807</v>
+        <v>25.25621173247805</v>
       </c>
       <c r="I3">
-        <v>6.31809718575215</v>
+        <v>6.318097185752086</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>43.27058616566303</v>
+        <v>43.27058616566298</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89122462646087</v>
+        <v>11.89122462646082</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.699684010926994</v>
+        <v>6.699684010927006</v>
       </c>
       <c r="E4">
-        <v>11.12109246881323</v>
+        <v>11.12109246881318</v>
       </c>
       <c r="F4">
-        <v>45.26625911118673</v>
+        <v>45.26625911118661</v>
       </c>
       <c r="G4">
-        <v>36.59944863198038</v>
+        <v>36.59944863198028</v>
       </c>
       <c r="H4">
-        <v>24.38074527014057</v>
+        <v>24.38074527014065</v>
       </c>
       <c r="I4">
-        <v>6.309021169459069</v>
+        <v>6.309021169459074</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>41.12557867351785</v>
+        <v>41.12557867351779</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65025453095946</v>
+        <v>11.65025453095947</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.540601168772087</v>
+        <v>6.54060116877204</v>
       </c>
       <c r="E5">
-        <v>10.97311640516533</v>
+        <v>10.97311640516525</v>
       </c>
       <c r="F5">
-        <v>44.13865016219619</v>
+        <v>44.13865016219614</v>
       </c>
       <c r="G5">
-        <v>35.67299213999337</v>
+        <v>35.67299213999331</v>
       </c>
       <c r="H5">
-        <v>24.02121768552121</v>
+        <v>24.02121768552126</v>
       </c>
       <c r="I5">
-        <v>6.306529740039984</v>
+        <v>6.30652974003994</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>40.22817504698419</v>
+        <v>40.2281750469842</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60981285782092</v>
+        <v>11.60981285782091</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.514052176580821</v>
+        <v>6.514052176580836</v>
       </c>
       <c r="E6">
-        <v>10.94836861188324</v>
+        <v>10.94836861188328</v>
       </c>
       <c r="F6">
-        <v>43.95084401219093</v>
+        <v>43.95084401219098</v>
       </c>
       <c r="G6">
-        <v>35.51858440313368</v>
+        <v>35.51858440313372</v>
       </c>
       <c r="H6">
-        <v>23.96135698989998</v>
+        <v>23.96135698989993</v>
       </c>
       <c r="I6">
-        <v>6.306189118118698</v>
+        <v>6.306189118118743</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>40.07772328296108</v>
+        <v>40.07772328296105</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88800350988848</v>
+        <v>11.88800350988846</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.697547258301004</v>
+        <v>6.697547258300954</v>
       </c>
       <c r="E7">
-        <v>11.11910876480934</v>
+        <v>11.11910876480945</v>
       </c>
       <c r="F7">
-        <v>45.25108844410892</v>
+        <v>45.25108844410904</v>
       </c>
       <c r="G7">
-        <v>36.58699112617828</v>
+        <v>36.58699112617836</v>
       </c>
       <c r="H7">
-        <v>24.37590751991968</v>
+        <v>24.37590751991964</v>
       </c>
       <c r="I7">
-        <v>6.308982672793402</v>
+        <v>6.308982672793519</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41.11357175203457</v>
+        <v>41.11357175203459</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.490844150696645</v>
+        <v>7.49084415069666</v>
       </c>
       <c r="E8">
         <v>11.84567204788151</v>
@@ -658,10 +658,10 @@
         <v>41.23368146702978</v>
       </c>
       <c r="H8">
-        <v>26.18059685387941</v>
+        <v>26.18059685387942</v>
       </c>
       <c r="I8">
-        <v>6.331879449394477</v>
+        <v>6.331879449394433</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>45.48324083585899</v>
+        <v>45.48324083585902</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.12759416177422</v>
+        <v>15.12759416177425</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.025920607536039</v>
+        <v>9.025920607535989</v>
       </c>
       <c r="E9">
-        <v>13.16485890043004</v>
+        <v>13.16485890043001</v>
       </c>
       <c r="F9">
-        <v>62.05422038838189</v>
+        <v>62.05422038838183</v>
       </c>
       <c r="G9">
-        <v>50.30516242999521</v>
+        <v>50.30516242999514</v>
       </c>
       <c r="H9">
-        <v>29.63172039492105</v>
+        <v>29.63172039492117</v>
       </c>
       <c r="I9">
-        <v>6.510083282075805</v>
+        <v>6.510083282075822</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>53.42695176795517</v>
+        <v>53.42695176795522</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.53378774471735</v>
+        <v>16.53378774471737</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.19835360959506</v>
+        <v>10.19835360959499</v>
       </c>
       <c r="E10">
-        <v>14.06508343416769</v>
+        <v>14.06508343416768</v>
       </c>
       <c r="F10">
-        <v>70.61343886015314</v>
+        <v>70.61343886015317</v>
       </c>
       <c r="G10">
-        <v>57.25582211707606</v>
+        <v>57.25582211707607</v>
       </c>
       <c r="H10">
-        <v>32.13283903145607</v>
+        <v>32.13283903145602</v>
       </c>
       <c r="I10">
-        <v>7.087901292479688</v>
+        <v>7.087901292479633</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.02333677117356</v>
+        <v>59.02333677117354</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.15224884235541</v>
+        <v>17.15224884235532</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.7634717191772</v>
+        <v>10.76347171917711</v>
       </c>
       <c r="E11">
-        <v>14.45973600457363</v>
+        <v>14.45973600457372</v>
       </c>
       <c r="F11">
-        <v>74.73729795714554</v>
+        <v>74.73729795714593</v>
       </c>
       <c r="G11">
-        <v>60.6001167435551</v>
+        <v>60.60011674355537</v>
       </c>
       <c r="H11">
-        <v>33.2733876098692</v>
+        <v>33.27338760986909</v>
       </c>
       <c r="I11">
-        <v>7.334113065107053</v>
+        <v>7.334113065107013</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.57022774669709</v>
+        <v>61.57022774669716</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.3839351143889</v>
+        <v>17.38393511438885</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.98522949906376</v>
+        <v>10.98522949906375</v>
       </c>
       <c r="E12">
-        <v>14.60718097332746</v>
+        <v>14.60718097332752</v>
       </c>
       <c r="F12">
-        <v>76.35322080872497</v>
+        <v>76.35322080872463</v>
       </c>
       <c r="G12">
-        <v>61.91002217092081</v>
+        <v>61.91002217092058</v>
       </c>
       <c r="H12">
-        <v>33.70722280342738</v>
+        <v>33.70722280342749</v>
       </c>
       <c r="I12">
-        <v>7.42474948311716</v>
+        <v>7.424749483117196</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62.54235867495219</v>
+        <v>62.5423586749521</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.33413766528541</v>
+        <v>17.33413766528543</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.93705344475047</v>
+        <v>10.9370534447506</v>
       </c>
       <c r="E13">
-        <v>14.57551092703109</v>
+        <v>14.57551092703117</v>
       </c>
       <c r="F13">
-        <v>76.0023154122851</v>
+        <v>76.00231541228524</v>
       </c>
       <c r="G13">
-        <v>61.62559187172612</v>
+        <v>61.62559187172628</v>
       </c>
       <c r="H13">
-        <v>33.61366865785106</v>
+        <v>33.61366865785103</v>
       </c>
       <c r="I13">
         <v>7.405350058737062</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>62.33248431351437</v>
+        <v>62.33248431351441</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.17135615610501</v>
+        <v>17.17135615610503</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.78153541015788</v>
+        <v>10.78153541015778</v>
       </c>
       <c r="E14">
-        <v>14.47190508500157</v>
+        <v>14.47190508500155</v>
       </c>
       <c r="F14">
-        <v>74.86898757730141</v>
+        <v>74.8689875773015</v>
       </c>
       <c r="G14">
-        <v>60.70687752313814</v>
+        <v>60.70687752313815</v>
       </c>
       <c r="H14">
-        <v>33.30902885032992</v>
+        <v>33.30902885032987</v>
       </c>
       <c r="I14">
-        <v>7.34162364757063</v>
+        <v>7.341623647570608</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>61.6499932869763</v>
+        <v>61.64999328697633</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.07134090845486</v>
+        <v>17.07134090845485</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.68741226582258</v>
+        <v>10.68741226582275</v>
       </c>
       <c r="E15">
-        <v>14.4081898593339</v>
+        <v>14.40818985933395</v>
       </c>
       <c r="F15">
-        <v>74.18269497143746</v>
+        <v>74.18269497143753</v>
       </c>
       <c r="G15">
-        <v>60.15047907461489</v>
+        <v>60.15047907461496</v>
       </c>
       <c r="H15">
         <v>33.12273999800734</v>
       </c>
       <c r="I15">
-        <v>7.302242034933607</v>
+        <v>7.30224203493361</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.49298387249951</v>
+        <v>16.49298387249953</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.16229639182224</v>
+        <v>10.1622963918223</v>
       </c>
       <c r="E16">
-        <v>14.03900092790198</v>
+        <v>14.03900092790203</v>
       </c>
       <c r="F16">
-        <v>70.35013424386814</v>
+        <v>70.35013424386831</v>
       </c>
       <c r="G16">
-        <v>57.0422110845826</v>
+        <v>57.0422110845828</v>
       </c>
       <c r="H16">
-        <v>32.05847086089471</v>
+        <v>32.05847086089473</v>
       </c>
       <c r="I16">
-        <v>7.071461725489414</v>
+        <v>7.071461725489374</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>58.85747005880558</v>
+        <v>58.85747005880565</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13306299711298</v>
+        <v>16.13306299711295</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.850080025023406</v>
+        <v>9.850080025023535</v>
       </c>
       <c r="E17">
-        <v>13.80875963902437</v>
+        <v>13.80875963902442</v>
       </c>
       <c r="F17">
-        <v>68.06986747971072</v>
+        <v>68.06986747971109</v>
       </c>
       <c r="G17">
-        <v>55.19181849094779</v>
+        <v>55.19181849094809</v>
       </c>
       <c r="H17">
-        <v>31.40714891342374</v>
+        <v>31.40714891342371</v>
       </c>
       <c r="I17">
-        <v>6.925520250556523</v>
+        <v>6.925520250556507</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>57.40452956439331</v>
+        <v>57.40452956439346</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.673235150017257</v>
+        <v>9.673235150017263</v>
       </c>
       <c r="E18">
-        <v>13.67491760004564</v>
+        <v>13.67491760004565</v>
       </c>
       <c r="F18">
-        <v>66.77828419472712</v>
+        <v>66.77828419472705</v>
       </c>
       <c r="G18">
-        <v>54.14330376246396</v>
+        <v>54.14330376246388</v>
       </c>
       <c r="H18">
-        <v>31.03266165780418</v>
+        <v>31.03266165780429</v>
       </c>
       <c r="I18">
-        <v>6.840030183905994</v>
+        <v>6.840030183906014</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>56.56833482606404</v>
+        <v>56.56833482606412</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85286041195904</v>
+        <v>15.85286041195902</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.613755976915693</v>
+        <v>9.613755976915625</v>
       </c>
       <c r="E19">
-        <v>13.62935646776428</v>
+        <v>13.62935646776433</v>
       </c>
       <c r="F19">
-        <v>66.34392450300476</v>
+        <v>66.34392450300521</v>
       </c>
       <c r="G19">
-        <v>53.79061336370536</v>
+        <v>53.79061336370573</v>
       </c>
       <c r="H19">
-        <v>30.90585529694907</v>
+        <v>30.90585529694896</v>
       </c>
       <c r="I19">
-        <v>6.810822796506626</v>
+        <v>6.810822796506573</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>56.2849559947098</v>
+        <v>56.28495599470988</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17158505629792</v>
+        <v>16.17158505629789</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.883015146755868</v>
+        <v>9.883015146755817</v>
       </c>
       <c r="E20">
-        <v>13.83341499767222</v>
+        <v>13.83341499767224</v>
       </c>
       <c r="F20">
-        <v>68.31041987234192</v>
+        <v>68.31041987234198</v>
       </c>
       <c r="G20">
         <v>55.38706517545921</v>
       </c>
       <c r="H20">
-        <v>31.47646052348756</v>
+        <v>31.47646052348749</v>
       </c>
       <c r="I20">
-        <v>6.941217244217198</v>
+        <v>6.941217244217193</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>57.55920692246876</v>
+        <v>57.55920692246869</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.21923163946411</v>
+        <v>17.21923163946421</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.82696951524322</v>
+        <v>10.82696951524336</v>
       </c>
       <c r="E21">
-        <v>14.50238897675321</v>
+        <v>14.50238897675332</v>
       </c>
       <c r="F21">
-        <v>75.20016997086206</v>
+        <v>75.20016997086229</v>
       </c>
       <c r="G21">
-        <v>60.97535891379293</v>
+        <v>60.97535891379317</v>
       </c>
       <c r="H21">
-        <v>33.39843991847351</v>
+        <v>33.39843991847361</v>
       </c>
       <c r="I21">
-        <v>7.360414656416501</v>
+        <v>7.360414656416535</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>61.8501678049785</v>
+        <v>61.85016780497865</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.88976153887633</v>
+        <v>17.88976153887639</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.49228797334946</v>
+        <v>11.49228797334953</v>
       </c>
       <c r="E22">
-        <v>14.92816400669072</v>
+        <v>14.92816400669073</v>
       </c>
       <c r="F22">
-        <v>80.04032335688694</v>
+        <v>80.04032335688662</v>
       </c>
       <c r="G22">
-        <v>64.89804208711116</v>
+        <v>64.89804208711094</v>
       </c>
       <c r="H22">
-        <v>34.68363852146457</v>
+        <v>34.68363852146472</v>
       </c>
       <c r="I22">
-        <v>7.61898391165641</v>
+        <v>7.618983911656456</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.70664657763123</v>
+        <v>64.7066465776312</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.13114013330026</v>
+        <v>11.13114013330038</v>
       </c>
       <c r="E23">
-        <v>14.70186560307911</v>
+        <v>14.70186560307912</v>
       </c>
       <c r="F23">
-        <v>77.41544344546621</v>
+        <v>77.41544344546675</v>
       </c>
       <c r="G23">
-        <v>62.77095129662619</v>
+        <v>62.77095129662661</v>
       </c>
       <c r="H23">
-        <v>33.98815555554167</v>
+        <v>33.98815555554162</v>
       </c>
       <c r="I23">
-        <v>7.482511410127643</v>
+        <v>7.482511410127612</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>63.17352701438102</v>
+        <v>63.17352701438118</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.15417591435693</v>
+        <v>16.15417591435688</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.868117127715299</v>
+        <v>9.868117127715188</v>
       </c>
       <c r="E24">
-        <v>13.82227290629439</v>
+        <v>13.82227290629428</v>
       </c>
       <c r="F24">
-        <v>68.20160720295377</v>
+        <v>68.20160720295357</v>
       </c>
       <c r="G24">
-        <v>55.29874763828014</v>
+        <v>55.29874763827996</v>
       </c>
       <c r="H24">
-        <v>31.44512495178031</v>
+        <v>31.4451249517802</v>
       </c>
       <c r="I24">
-        <v>6.934125561813199</v>
+        <v>6.934125561813185</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.48928053008117</v>
+        <v>57.48928053008105</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.58832134133227</v>
+        <v>14.58832134133235</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.608136859935586</v>
+        <v>8.608136859935588</v>
       </c>
       <c r="E25">
-        <v>12.81991754688536</v>
+        <v>12.81991754688532</v>
       </c>
       <c r="F25">
-        <v>59.01159732189514</v>
+        <v>59.01159732189516</v>
       </c>
       <c r="G25">
-        <v>47.82999044961137</v>
+        <v>47.82999044961139</v>
       </c>
       <c r="H25">
-        <v>28.70638280346041</v>
+        <v>28.70638280346056</v>
       </c>
       <c r="I25">
-        <v>6.387635272003768</v>
+        <v>6.387635272003712</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>51.33309161062589</v>
+        <v>51.33309161062601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -418,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.702888915847605</v>
+        <v>7.702888915847593</v>
       </c>
       <c r="E2">
-        <v>12.0356451634025</v>
+        <v>12.03564516340249</v>
       </c>
       <c r="F2">
-        <v>52.45119852779293</v>
+        <v>52.45119852779288</v>
       </c>
       <c r="G2">
-        <v>42.48185848629186</v>
+        <v>42.48185848629183</v>
       </c>
       <c r="H2">
-        <v>26.66338903802295</v>
+        <v>26.66338903802287</v>
       </c>
       <c r="I2">
-        <v>6.340623943012896</v>
+        <v>6.340623943012918</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.62108193528685</v>
+        <v>46.62108193528677</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46523695010139</v>
+        <v>12.46523695010135</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.085128085001405</v>
+        <v>7.085128085001354</v>
       </c>
       <c r="E3">
-        <v>11.4768282197887</v>
+        <v>11.47682821978871</v>
       </c>
       <c r="F3">
-        <v>48.01303994589504</v>
+        <v>48.01303994589514</v>
       </c>
       <c r="G3">
-        <v>38.85215805970594</v>
+        <v>38.852158059706</v>
       </c>
       <c r="H3">
-        <v>25.25621173247805</v>
+        <v>25.25621173247807</v>
       </c>
       <c r="I3">
-        <v>6.318097185752086</v>
+        <v>6.31809718575215</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>43.27058616566298</v>
+        <v>43.27058616566303</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89122462646082</v>
+        <v>11.89122462646087</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.699684010927006</v>
+        <v>6.699684010926994</v>
       </c>
       <c r="E4">
-        <v>11.12109246881318</v>
+        <v>11.12109246881323</v>
       </c>
       <c r="F4">
-        <v>45.26625911118661</v>
+        <v>45.26625911118673</v>
       </c>
       <c r="G4">
-        <v>36.59944863198028</v>
+        <v>36.59944863198038</v>
       </c>
       <c r="H4">
-        <v>24.38074527014065</v>
+        <v>24.38074527014057</v>
       </c>
       <c r="I4">
-        <v>6.309021169459074</v>
+        <v>6.309021169459069</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>41.12557867351779</v>
+        <v>41.12557867351785</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65025453095947</v>
+        <v>11.65025453095946</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.54060116877204</v>
+        <v>6.540601168772087</v>
       </c>
       <c r="E5">
-        <v>10.97311640516525</v>
+        <v>10.97311640516533</v>
       </c>
       <c r="F5">
-        <v>44.13865016219614</v>
+        <v>44.13865016219619</v>
       </c>
       <c r="G5">
-        <v>35.67299213999331</v>
+        <v>35.67299213999337</v>
       </c>
       <c r="H5">
-        <v>24.02121768552126</v>
+        <v>24.02121768552121</v>
       </c>
       <c r="I5">
-        <v>6.30652974003994</v>
+        <v>6.306529740039984</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>40.2281750469842</v>
+        <v>40.22817504698419</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60981285782091</v>
+        <v>11.60981285782092</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.514052176580836</v>
+        <v>6.514052176580821</v>
       </c>
       <c r="E6">
-        <v>10.94836861188328</v>
+        <v>10.94836861188324</v>
       </c>
       <c r="F6">
-        <v>43.95084401219098</v>
+        <v>43.95084401219093</v>
       </c>
       <c r="G6">
-        <v>35.51858440313372</v>
+        <v>35.51858440313368</v>
       </c>
       <c r="H6">
-        <v>23.96135698989993</v>
+        <v>23.96135698989998</v>
       </c>
       <c r="I6">
-        <v>6.306189118118743</v>
+        <v>6.306189118118698</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>40.07772328296105</v>
+        <v>40.07772328296108</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88800350988846</v>
+        <v>11.88800350988848</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.697547258300954</v>
+        <v>6.697547258301004</v>
       </c>
       <c r="E7">
-        <v>11.11910876480945</v>
+        <v>11.11910876480934</v>
       </c>
       <c r="F7">
-        <v>45.25108844410904</v>
+        <v>45.25108844410892</v>
       </c>
       <c r="G7">
-        <v>36.58699112617836</v>
+        <v>36.58699112617828</v>
       </c>
       <c r="H7">
-        <v>24.37590751991964</v>
+        <v>24.37590751991968</v>
       </c>
       <c r="I7">
-        <v>6.308982672793519</v>
+        <v>6.308982672793402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41.11357175203459</v>
+        <v>41.11357175203457</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.49084415069666</v>
+        <v>7.490844150696645</v>
       </c>
       <c r="E8">
         <v>11.84567204788151</v>
@@ -658,10 +658,10 @@
         <v>41.23368146702978</v>
       </c>
       <c r="H8">
-        <v>26.18059685387942</v>
+        <v>26.18059685387941</v>
       </c>
       <c r="I8">
-        <v>6.331879449394433</v>
+        <v>6.331879449394477</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>45.48324083585902</v>
+        <v>45.48324083585899</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.12759416177425</v>
+        <v>15.12759416177422</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.025920607535989</v>
+        <v>9.025920607536039</v>
       </c>
       <c r="E9">
-        <v>13.16485890043001</v>
+        <v>13.16485890043004</v>
       </c>
       <c r="F9">
-        <v>62.05422038838183</v>
+        <v>62.05422038838189</v>
       </c>
       <c r="G9">
-        <v>50.30516242999514</v>
+        <v>50.30516242999521</v>
       </c>
       <c r="H9">
-        <v>29.63172039492117</v>
+        <v>29.63172039492105</v>
       </c>
       <c r="I9">
-        <v>6.510083282075822</v>
+        <v>6.510083282075805</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>53.42695176795522</v>
+        <v>53.42695176795517</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.53378774471737</v>
+        <v>16.53378774471735</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.19835360959499</v>
+        <v>10.19835360959506</v>
       </c>
       <c r="E10">
-        <v>14.06508343416768</v>
+        <v>14.06508343416769</v>
       </c>
       <c r="F10">
-        <v>70.61343886015317</v>
+        <v>70.61343886015314</v>
       </c>
       <c r="G10">
-        <v>57.25582211707607</v>
+        <v>57.25582211707606</v>
       </c>
       <c r="H10">
-        <v>32.13283903145602</v>
+        <v>32.13283903145607</v>
       </c>
       <c r="I10">
-        <v>7.087901292479633</v>
+        <v>7.087901292479688</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.02333677117354</v>
+        <v>59.02333677117356</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.15224884235532</v>
+        <v>17.15224884235541</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.76347171917711</v>
+        <v>10.7634717191772</v>
       </c>
       <c r="E11">
-        <v>14.45973600457372</v>
+        <v>14.45973600457363</v>
       </c>
       <c r="F11">
-        <v>74.73729795714593</v>
+        <v>74.73729795714554</v>
       </c>
       <c r="G11">
-        <v>60.60011674355537</v>
+        <v>60.6001167435551</v>
       </c>
       <c r="H11">
-        <v>33.27338760986909</v>
+        <v>33.2733876098692</v>
       </c>
       <c r="I11">
-        <v>7.334113065107013</v>
+        <v>7.334113065107053</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.57022774669716</v>
+        <v>61.57022774669709</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.38393511438885</v>
+        <v>17.3839351143889</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.98522949906375</v>
+        <v>10.98522949906376</v>
       </c>
       <c r="E12">
-        <v>14.60718097332752</v>
+        <v>14.60718097332746</v>
       </c>
       <c r="F12">
-        <v>76.35322080872463</v>
+        <v>76.35322080872497</v>
       </c>
       <c r="G12">
-        <v>61.91002217092058</v>
+        <v>61.91002217092081</v>
       </c>
       <c r="H12">
-        <v>33.70722280342749</v>
+        <v>33.70722280342738</v>
       </c>
       <c r="I12">
-        <v>7.424749483117196</v>
+        <v>7.42474948311716</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62.5423586749521</v>
+        <v>62.54235867495219</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.33413766528543</v>
+        <v>17.33413766528541</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.9370534447506</v>
+        <v>10.93705344475047</v>
       </c>
       <c r="E13">
-        <v>14.57551092703117</v>
+        <v>14.57551092703109</v>
       </c>
       <c r="F13">
-        <v>76.00231541228524</v>
+        <v>76.0023154122851</v>
       </c>
       <c r="G13">
-        <v>61.62559187172628</v>
+        <v>61.62559187172612</v>
       </c>
       <c r="H13">
-        <v>33.61366865785103</v>
+        <v>33.61366865785106</v>
       </c>
       <c r="I13">
         <v>7.405350058737062</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>62.33248431351441</v>
+        <v>62.33248431351437</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.17135615610503</v>
+        <v>17.17135615610501</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.78153541015778</v>
+        <v>10.78153541015788</v>
       </c>
       <c r="E14">
-        <v>14.47190508500155</v>
+        <v>14.47190508500157</v>
       </c>
       <c r="F14">
-        <v>74.8689875773015</v>
+        <v>74.86898757730141</v>
       </c>
       <c r="G14">
-        <v>60.70687752313815</v>
+        <v>60.70687752313814</v>
       </c>
       <c r="H14">
-        <v>33.30902885032987</v>
+        <v>33.30902885032992</v>
       </c>
       <c r="I14">
-        <v>7.341623647570608</v>
+        <v>7.34162364757063</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>61.64999328697633</v>
+        <v>61.6499932869763</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.07134090845485</v>
+        <v>17.07134090845486</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.68741226582275</v>
+        <v>10.68741226582258</v>
       </c>
       <c r="E15">
-        <v>14.40818985933395</v>
+        <v>14.4081898593339</v>
       </c>
       <c r="F15">
-        <v>74.18269497143753</v>
+        <v>74.18269497143746</v>
       </c>
       <c r="G15">
-        <v>60.15047907461496</v>
+        <v>60.15047907461489</v>
       </c>
       <c r="H15">
         <v>33.12273999800734</v>
       </c>
       <c r="I15">
-        <v>7.30224203493361</v>
+        <v>7.302242034933607</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.49298387249953</v>
+        <v>16.49298387249951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.1622963918223</v>
+        <v>10.16229639182224</v>
       </c>
       <c r="E16">
-        <v>14.03900092790203</v>
+        <v>14.03900092790198</v>
       </c>
       <c r="F16">
-        <v>70.35013424386831</v>
+        <v>70.35013424386814</v>
       </c>
       <c r="G16">
-        <v>57.0422110845828</v>
+        <v>57.0422110845826</v>
       </c>
       <c r="H16">
-        <v>32.05847086089473</v>
+        <v>32.05847086089471</v>
       </c>
       <c r="I16">
-        <v>7.071461725489374</v>
+        <v>7.071461725489414</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>58.85747005880565</v>
+        <v>58.85747005880558</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13306299711295</v>
+        <v>16.13306299711298</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.850080025023535</v>
+        <v>9.850080025023406</v>
       </c>
       <c r="E17">
-        <v>13.80875963902442</v>
+        <v>13.80875963902437</v>
       </c>
       <c r="F17">
-        <v>68.06986747971109</v>
+        <v>68.06986747971072</v>
       </c>
       <c r="G17">
-        <v>55.19181849094809</v>
+        <v>55.19181849094779</v>
       </c>
       <c r="H17">
-        <v>31.40714891342371</v>
+        <v>31.40714891342374</v>
       </c>
       <c r="I17">
-        <v>6.925520250556507</v>
+        <v>6.925520250556523</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>57.40452956439346</v>
+        <v>57.40452956439331</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.673235150017263</v>
+        <v>9.673235150017257</v>
       </c>
       <c r="E18">
-        <v>13.67491760004565</v>
+        <v>13.67491760004564</v>
       </c>
       <c r="F18">
-        <v>66.77828419472705</v>
+        <v>66.77828419472712</v>
       </c>
       <c r="G18">
-        <v>54.14330376246388</v>
+        <v>54.14330376246396</v>
       </c>
       <c r="H18">
-        <v>31.03266165780429</v>
+        <v>31.03266165780418</v>
       </c>
       <c r="I18">
-        <v>6.840030183906014</v>
+        <v>6.840030183905994</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>56.56833482606412</v>
+        <v>56.56833482606404</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85286041195902</v>
+        <v>15.85286041195904</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.613755976915625</v>
+        <v>9.613755976915693</v>
       </c>
       <c r="E19">
-        <v>13.62935646776433</v>
+        <v>13.62935646776428</v>
       </c>
       <c r="F19">
-        <v>66.34392450300521</v>
+        <v>66.34392450300476</v>
       </c>
       <c r="G19">
-        <v>53.79061336370573</v>
+        <v>53.79061336370536</v>
       </c>
       <c r="H19">
-        <v>30.90585529694896</v>
+        <v>30.90585529694907</v>
       </c>
       <c r="I19">
-        <v>6.810822796506573</v>
+        <v>6.810822796506626</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>56.28495599470988</v>
+        <v>56.2849559947098</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17158505629789</v>
+        <v>16.17158505629792</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.883015146755817</v>
+        <v>9.883015146755868</v>
       </c>
       <c r="E20">
-        <v>13.83341499767224</v>
+        <v>13.83341499767222</v>
       </c>
       <c r="F20">
-        <v>68.31041987234198</v>
+        <v>68.31041987234192</v>
       </c>
       <c r="G20">
         <v>55.38706517545921</v>
       </c>
       <c r="H20">
-        <v>31.47646052348749</v>
+        <v>31.47646052348756</v>
       </c>
       <c r="I20">
-        <v>6.941217244217193</v>
+        <v>6.941217244217198</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>57.55920692246869</v>
+        <v>57.55920692246876</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.21923163946421</v>
+        <v>17.21923163946411</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.82696951524336</v>
+        <v>10.82696951524322</v>
       </c>
       <c r="E21">
-        <v>14.50238897675332</v>
+        <v>14.50238897675321</v>
       </c>
       <c r="F21">
-        <v>75.20016997086229</v>
+        <v>75.20016997086206</v>
       </c>
       <c r="G21">
-        <v>60.97535891379317</v>
+        <v>60.97535891379293</v>
       </c>
       <c r="H21">
-        <v>33.39843991847361</v>
+        <v>33.39843991847351</v>
       </c>
       <c r="I21">
-        <v>7.360414656416535</v>
+        <v>7.360414656416501</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>61.85016780497865</v>
+        <v>61.8501678049785</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.88976153887639</v>
+        <v>17.88976153887633</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.49228797334953</v>
+        <v>11.49228797334946</v>
       </c>
       <c r="E22">
-        <v>14.92816400669073</v>
+        <v>14.92816400669072</v>
       </c>
       <c r="F22">
-        <v>80.04032335688662</v>
+        <v>80.04032335688694</v>
       </c>
       <c r="G22">
-        <v>64.89804208711094</v>
+        <v>64.89804208711116</v>
       </c>
       <c r="H22">
-        <v>34.68363852146472</v>
+        <v>34.68363852146457</v>
       </c>
       <c r="I22">
-        <v>7.618983911656456</v>
+        <v>7.61898391165641</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.7066465776312</v>
+        <v>64.70664657763123</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.13114013330038</v>
+        <v>11.13114013330026</v>
       </c>
       <c r="E23">
-        <v>14.70186560307912</v>
+        <v>14.70186560307911</v>
       </c>
       <c r="F23">
-        <v>77.41544344546675</v>
+        <v>77.41544344546621</v>
       </c>
       <c r="G23">
-        <v>62.77095129662661</v>
+        <v>62.77095129662619</v>
       </c>
       <c r="H23">
-        <v>33.98815555554162</v>
+        <v>33.98815555554167</v>
       </c>
       <c r="I23">
-        <v>7.482511410127612</v>
+        <v>7.482511410127643</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>63.17352701438118</v>
+        <v>63.17352701438102</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.15417591435688</v>
+        <v>16.15417591435693</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.868117127715188</v>
+        <v>9.868117127715299</v>
       </c>
       <c r="E24">
-        <v>13.82227290629428</v>
+        <v>13.82227290629439</v>
       </c>
       <c r="F24">
-        <v>68.20160720295357</v>
+        <v>68.20160720295377</v>
       </c>
       <c r="G24">
-        <v>55.29874763827996</v>
+        <v>55.29874763828014</v>
       </c>
       <c r="H24">
-        <v>31.4451249517802</v>
+        <v>31.44512495178031</v>
       </c>
       <c r="I24">
-        <v>6.934125561813185</v>
+        <v>6.934125561813199</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.48928053008105</v>
+        <v>57.48928053008117</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.58832134133235</v>
+        <v>14.58832134133227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.608136859935588</v>
+        <v>8.608136859935586</v>
       </c>
       <c r="E25">
-        <v>12.81991754688532</v>
+        <v>12.81991754688536</v>
       </c>
       <c r="F25">
-        <v>59.01159732189516</v>
+        <v>59.01159732189514</v>
       </c>
       <c r="G25">
-        <v>47.82999044961139</v>
+        <v>47.82999044961137</v>
       </c>
       <c r="H25">
-        <v>28.70638280346056</v>
+        <v>28.70638280346041</v>
       </c>
       <c r="I25">
-        <v>6.387635272003712</v>
+        <v>6.387635272003768</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>51.33309161062601</v>
+        <v>51.33309161062589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.35510426221532</v>
+        <v>13.35780497531017</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.702888915847593</v>
+        <v>7.688889566336876</v>
       </c>
       <c r="E2">
-        <v>12.03564516340249</v>
+        <v>12.0237976083921</v>
       </c>
       <c r="F2">
-        <v>52.45119852779288</v>
+        <v>52.39420403433631</v>
       </c>
       <c r="G2">
-        <v>42.48185848629183</v>
+        <v>42.53630444205236</v>
       </c>
       <c r="H2">
-        <v>26.66338903802287</v>
+        <v>42.18990498903411</v>
       </c>
       <c r="I2">
-        <v>6.340623943012918</v>
+        <v>26.67405342569921</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.338233865567071</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>46.62108193528677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>46.6036858889756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46523695010135</v>
+        <v>12.46779528191456</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.085128085001354</v>
+        <v>7.072604661263796</v>
       </c>
       <c r="E3">
-        <v>11.47682821978871</v>
+        <v>11.46610909223947</v>
       </c>
       <c r="F3">
-        <v>48.01303994589514</v>
+        <v>47.96247023642125</v>
       </c>
       <c r="G3">
-        <v>38.852158059706</v>
+        <v>38.90329959823174</v>
       </c>
       <c r="H3">
-        <v>25.25621173247807</v>
+        <v>38.62736741043253</v>
       </c>
       <c r="I3">
-        <v>6.31809718575215</v>
+        <v>25.26608215834401</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.315941486032988</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>43.27058616566303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>43.25525196321697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89122462646087</v>
+        <v>11.89368314110288</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.699684010926994</v>
+        <v>6.688051510309645</v>
       </c>
       <c r="E4">
-        <v>11.12109246881323</v>
+        <v>11.11110600504064</v>
       </c>
       <c r="F4">
-        <v>45.26625911118673</v>
+        <v>45.21943823441911</v>
       </c>
       <c r="G4">
-        <v>36.59944863198038</v>
+        <v>36.64835957943556</v>
       </c>
       <c r="H4">
-        <v>24.38074527014057</v>
+        <v>36.42261061299391</v>
       </c>
       <c r="I4">
-        <v>6.309021169459069</v>
+        <v>24.39006561977335</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.307030857411505</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>41.12557867351785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>41.11144397032768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65025453095946</v>
+        <v>11.65266948863467</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.540601168772087</v>
+        <v>6.52933070338174</v>
       </c>
       <c r="E5">
-        <v>10.97311640516533</v>
+        <v>10.96343936812442</v>
       </c>
       <c r="F5">
-        <v>44.13865016219619</v>
+        <v>44.09332316896403</v>
       </c>
       <c r="G5">
-        <v>35.67299213999337</v>
+        <v>35.72095055650991</v>
       </c>
       <c r="H5">
-        <v>24.02121768552121</v>
+        <v>35.51753639162103</v>
       </c>
       <c r="I5">
-        <v>6.306529740039984</v>
+        <v>24.03029905645509</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.304611546729245</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>40.22817504698419</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>40.21451816124371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60981285782092</v>
+        <v>11.61222041444745</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.514052176580821</v>
+        <v>6.502841835260555</v>
       </c>
       <c r="E6">
-        <v>10.94836861188324</v>
+        <v>10.93874363218888</v>
       </c>
       <c r="F6">
-        <v>43.95084401219093</v>
+        <v>43.90576340864422</v>
       </c>
       <c r="G6">
-        <v>35.51858440313368</v>
+        <v>35.56638219394381</v>
       </c>
       <c r="H6">
-        <v>23.96135698989998</v>
+        <v>35.36679531583849</v>
       </c>
       <c r="I6">
-        <v>6.306189118118698</v>
+        <v>23.97039780763541</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.304283167320963</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>40.07772328296108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>40.06414521504161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88800350988848</v>
+        <v>11.89046144851098</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.697547258301004</v>
+        <v>6.685919641111671</v>
       </c>
       <c r="E7">
-        <v>11.11910876480934</v>
+        <v>11.10912642911252</v>
       </c>
       <c r="F7">
-        <v>45.25108844410892</v>
+        <v>45.20428783387366</v>
       </c>
       <c r="G7">
-        <v>36.58699112617828</v>
+        <v>36.63588939581287</v>
       </c>
       <c r="H7">
-        <v>24.37590751991968</v>
+        <v>36.41043380127502</v>
       </c>
       <c r="I7">
-        <v>6.308982672793402</v>
+        <v>24.38522470550093</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.306993315068523</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>41.11357175203457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>41.09944353084206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05393931436098</v>
+        <v>13.05659367487263</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.490844150696645</v>
+        <v>7.477358816524113</v>
       </c>
       <c r="E8">
-        <v>11.84567204788151</v>
+        <v>11.834205889847</v>
       </c>
       <c r="F8">
-        <v>50.92348543319336</v>
+        <v>50.86875774851713</v>
       </c>
       <c r="G8">
-        <v>41.23368146702978</v>
+        <v>41.28703498341951</v>
       </c>
       <c r="H8">
-        <v>26.18059685387941</v>
+        <v>40.96357704053121</v>
       </c>
       <c r="I8">
-        <v>6.331879449394477</v>
+        <v>26.19100108616609</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.329565282870887</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>45.48324083585899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>45.46657348648498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.12759416177422</v>
+        <v>15.13051881274083</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.025920607536039</v>
+        <v>9.008487699078968</v>
       </c>
       <c r="E9">
-        <v>13.16485890043004</v>
+        <v>13.15074653337038</v>
       </c>
       <c r="F9">
-        <v>62.05422038838189</v>
+        <v>61.98134151156744</v>
       </c>
       <c r="G9">
-        <v>50.30516242999521</v>
+        <v>50.36514482680148</v>
       </c>
       <c r="H9">
-        <v>29.63172039492105</v>
+        <v>49.89909173732129</v>
       </c>
       <c r="I9">
-        <v>6.510083282075805</v>
+        <v>29.64370259340276</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.509128718274459</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>53.42695176795517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>53.40439723543117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.53378774471735</v>
+        <v>16.53680048885555</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.19835360959506</v>
+        <v>10.17740949892115</v>
       </c>
       <c r="E10">
-        <v>14.06508343416769</v>
+        <v>14.04907603965552</v>
       </c>
       <c r="F10">
-        <v>70.61343886015314</v>
+        <v>70.52311793407495</v>
       </c>
       <c r="G10">
-        <v>57.25582211707606</v>
+        <v>57.31806912568906</v>
       </c>
       <c r="H10">
-        <v>32.13283903145607</v>
+        <v>56.77147913485495</v>
       </c>
       <c r="I10">
-        <v>7.087901292479688</v>
+        <v>32.14550998778824</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.087270997411625</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>59.02333677117356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>58.99500223329861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.15224884235541</v>
+        <v>17.1552581588497</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.7634717191772</v>
+        <v>10.74059862699011</v>
       </c>
       <c r="E11">
-        <v>14.45973600457363</v>
+        <v>14.44282951470008</v>
       </c>
       <c r="F11">
-        <v>74.73729795714554</v>
+        <v>74.63694734930473</v>
       </c>
       <c r="G11">
-        <v>60.6001167435551</v>
+        <v>60.66213246710078</v>
       </c>
       <c r="H11">
-        <v>33.2733876098692</v>
+        <v>60.08306618423958</v>
       </c>
       <c r="I11">
-        <v>7.334113065107053</v>
+        <v>33.28620659412183</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.333689536338718</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>61.57022774669709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>61.53851924403247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.3839351143889</v>
+        <v>17.38693347234202</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.98522949906376</v>
+        <v>10.9615438197051</v>
       </c>
       <c r="E12">
-        <v>14.60718097332746</v>
+        <v>14.58992090723854</v>
       </c>
       <c r="F12">
-        <v>76.35322080872497</v>
+        <v>76.24856091304193</v>
       </c>
       <c r="G12">
-        <v>61.91002217092081</v>
+        <v>61.97163870610514</v>
       </c>
       <c r="H12">
-        <v>33.70722280342738</v>
+        <v>61.38077774497494</v>
       </c>
       <c r="I12">
-        <v>7.42474948311716</v>
+        <v>33.72006307414592</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.42441750103549</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>62.54235867495219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>62.50919068805479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.33413766528541</v>
+        <v>17.33713889801875</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.93705344475047</v>
+        <v>10.9135472817476</v>
       </c>
       <c r="E13">
-        <v>14.57551092703109</v>
+        <v>14.55832778198073</v>
       </c>
       <c r="F13">
-        <v>76.0023154122851</v>
+        <v>75.89861159100845</v>
       </c>
       <c r="G13">
-        <v>61.62559187172612</v>
+        <v>61.6873116099495</v>
       </c>
       <c r="H13">
-        <v>33.61366865785106</v>
+        <v>61.0989701698744</v>
       </c>
       <c r="I13">
-        <v>7.405350058737062</v>
+        <v>33.62650616498979</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.404997654888917</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>62.33248431351437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>62.29964061076486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.17135615610501</v>
+        <v>17.17436479400387</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.78153541015788</v>
+        <v>10.75859740836648</v>
       </c>
       <c r="E14">
-        <v>14.47190508500157</v>
+        <v>14.45496983436235</v>
       </c>
       <c r="F14">
-        <v>74.86898757730141</v>
+        <v>74.76829450215489</v>
       </c>
       <c r="G14">
-        <v>60.70687752313814</v>
+        <v>60.76886781075535</v>
       </c>
       <c r="H14">
-        <v>33.30902885032992</v>
+        <v>60.18882169178598</v>
       </c>
       <c r="I14">
-        <v>7.34162364757063</v>
+        <v>33.32185037745464</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.341207344661665</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>61.6499932869763</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>61.61816900188445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.07134090845486</v>
+        <v>17.07435267780738</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.68741226582258</v>
+        <v>10.66481010617336</v>
       </c>
       <c r="E15">
-        <v>14.4081898593339</v>
+        <v>14.39140441711322</v>
       </c>
       <c r="F15">
-        <v>74.18269497143746</v>
+        <v>74.08377044462929</v>
       </c>
       <c r="G15">
-        <v>60.15047907461489</v>
+        <v>60.21258873639878</v>
       </c>
       <c r="H15">
-        <v>33.12273999800734</v>
+        <v>59.63768618964481</v>
       </c>
       <c r="I15">
-        <v>7.302242034933607</v>
+        <v>33.13554673643741</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.301788518077723</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>61.23324194583362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>61.20201518426208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.49298387249951</v>
+        <v>16.49599572798881</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.16229639182224</v>
+        <v>10.14146926883156</v>
       </c>
       <c r="E16">
-        <v>14.03900092790198</v>
+        <v>14.02305099516376</v>
       </c>
       <c r="F16">
-        <v>70.35013424386814</v>
+        <v>70.26041200242202</v>
       </c>
       <c r="G16">
-        <v>57.0422110845826</v>
+        <v>57.10443893702367</v>
       </c>
       <c r="H16">
-        <v>32.05847086089471</v>
+        <v>56.56004728602089</v>
       </c>
       <c r="I16">
-        <v>7.071461725489414</v>
+        <v>32.07112805050686</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.070819442483035</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>58.85747005880558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>58.8293358296272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13306299711298</v>
+        <v>16.13606202052764</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.850080025023406</v>
+        <v>9.830239218238475</v>
       </c>
       <c r="E17">
-        <v>13.80875963902437</v>
+        <v>13.79330868833168</v>
       </c>
       <c r="F17">
-        <v>68.06986747971072</v>
+        <v>67.98514657947894</v>
       </c>
       <c r="G17">
-        <v>55.19181849094779</v>
+        <v>55.25373132048376</v>
       </c>
       <c r="H17">
-        <v>31.40714891342374</v>
+        <v>54.72905912993621</v>
       </c>
       <c r="I17">
-        <v>6.925520250556523</v>
+        <v>31.41966639230562</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.924779798172248</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>57.40452956439331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>57.37806357826276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.9240066021148</v>
+        <v>15.926994437638</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.673235150017257</v>
+        <v>9.653933321471692</v>
       </c>
       <c r="E18">
-        <v>13.67491760004564</v>
+        <v>13.65975081027107</v>
       </c>
       <c r="F18">
-        <v>66.77828419472712</v>
+        <v>66.69626044025587</v>
       </c>
       <c r="G18">
-        <v>54.14330376246396</v>
+        <v>54.20492781558613</v>
       </c>
       <c r="H18">
-        <v>31.03266165780418</v>
+        <v>53.69199528180896</v>
       </c>
       <c r="I18">
-        <v>6.840030183905994</v>
+        <v>31.04508414896626</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.839238449127687</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>56.56833482606404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>56.5427645901685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85286041195904</v>
+        <v>15.85584387396006</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.613755976915693</v>
+        <v>9.594632465340464</v>
       </c>
       <c r="E19">
-        <v>13.62935646776428</v>
+        <v>13.61428556397354</v>
       </c>
       <c r="F19">
-        <v>66.34392450300476</v>
+        <v>66.26278733742774</v>
       </c>
       <c r="G19">
-        <v>53.79061336370536</v>
+        <v>53.85212366560628</v>
       </c>
       <c r="H19">
-        <v>30.90585529694907</v>
+        <v>53.34323693787179</v>
       </c>
       <c r="I19">
-        <v>6.810822796506626</v>
+        <v>30.91824333523795</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.810014491581152</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>56.2849559947098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>56.25967958912845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17158505629792</v>
+        <v>16.17458585701182</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.883015146755868</v>
+        <v>9.863072451307071</v>
       </c>
       <c r="E20">
-        <v>13.83341499767222</v>
+        <v>13.81791126409463</v>
       </c>
       <c r="F20">
-        <v>68.31041987234192</v>
+        <v>68.2251862107489</v>
       </c>
       <c r="G20">
-        <v>55.38706517545921</v>
+        <v>55.44902330958121</v>
       </c>
       <c r="H20">
-        <v>31.47646052348756</v>
+        <v>54.92221144572893</v>
       </c>
       <c r="I20">
-        <v>6.941217244217198</v>
+        <v>31.48899444474663</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.9404866814349</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>57.55920692246876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>57.53257032836945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.21923163946411</v>
+        <v>17.22223840533924</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.82696951524322</v>
+        <v>10.80386727235341</v>
       </c>
       <c r="E21">
-        <v>14.50238897675321</v>
+        <v>14.48538136038336</v>
       </c>
       <c r="F21">
-        <v>75.20016997086206</v>
+        <v>75.0986089671803</v>
       </c>
       <c r="G21">
-        <v>60.97535891379293</v>
+        <v>61.03727980684764</v>
       </c>
       <c r="H21">
-        <v>33.39843991847351</v>
+        <v>60.45478433500965</v>
       </c>
       <c r="I21">
-        <v>7.360414656416501</v>
+        <v>33.41126721490089</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.360016706660387</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>61.8501678049785</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>61.81804992637907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.88976153887633</v>
+        <v>17.89271167543388</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.49228797334946</v>
+        <v>11.4665994653944</v>
       </c>
       <c r="E22">
-        <v>14.92816400669072</v>
+        <v>14.91008794368973</v>
       </c>
       <c r="F22">
-        <v>80.04032335688694</v>
+        <v>79.92484999783834</v>
       </c>
       <c r="G22">
-        <v>64.89804208711116</v>
+        <v>64.95794918033958</v>
       </c>
       <c r="H22">
-        <v>34.68363852146457</v>
+        <v>64.34193292717755</v>
       </c>
       <c r="I22">
-        <v>7.61898391165641</v>
+        <v>34.69566481064989</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.618886271581276</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>64.70664657763123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>64.66979334728839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.53292923294616</v>
+        <v>17.53591714699267</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.13114013330026</v>
+        <v>11.10690002828418</v>
       </c>
       <c r="E23">
-        <v>14.70186560307911</v>
+        <v>14.68437206740187</v>
       </c>
       <c r="F23">
-        <v>77.41544344546621</v>
+        <v>77.30781664399512</v>
       </c>
       <c r="G23">
-        <v>62.77095129662619</v>
+        <v>62.83219617355365</v>
       </c>
       <c r="H23">
-        <v>33.98815555554167</v>
+        <v>62.23384525685361</v>
       </c>
       <c r="I23">
-        <v>7.482511410127643</v>
+        <v>34.00099770595519</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.482243154604879</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>63.17352701438102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>63.13935103468717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.15417591435693</v>
+        <v>16.15717592321101</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.868117127715299</v>
+        <v>9.848220581414372</v>
       </c>
       <c r="E24">
-        <v>13.82227290629439</v>
+        <v>13.80679304380939</v>
       </c>
       <c r="F24">
-        <v>68.20160720295377</v>
+        <v>68.11660590275159</v>
       </c>
       <c r="G24">
-        <v>55.29874763828014</v>
+        <v>55.36068561764036</v>
       </c>
       <c r="H24">
-        <v>31.44512495178031</v>
+        <v>54.83483983900225</v>
       </c>
       <c r="I24">
-        <v>6.934125561813199</v>
+        <v>31.45765148443775</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.933390512177495</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.48928053008117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>57.46272126050452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.58832134133227</v>
+        <v>14.591188160358</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.608136859935586</v>
+        <v>8.591836672550452</v>
       </c>
       <c r="E25">
-        <v>12.81991754688536</v>
+        <v>12.80650170356626</v>
       </c>
       <c r="F25">
-        <v>59.01159732189514</v>
+        <v>58.94409555655361</v>
       </c>
       <c r="G25">
-        <v>47.82999044961137</v>
+        <v>47.88849864124633</v>
       </c>
       <c r="H25">
-        <v>28.70638280346041</v>
+        <v>47.45638141948557</v>
       </c>
       <c r="I25">
-        <v>6.387635272003768</v>
+        <v>28.71800740295311</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.384980207607116</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>51.33309161062589</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>51.31229442285438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.35780497531017</v>
+        <v>18.24245805798088</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.688889566336876</v>
+        <v>5.739495352766984</v>
       </c>
       <c r="E2">
-        <v>12.0237976083921</v>
+        <v>10.45678857737858</v>
       </c>
       <c r="F2">
-        <v>52.39420403433631</v>
+        <v>39.03960847242863</v>
       </c>
       <c r="G2">
-        <v>42.53630444205236</v>
+        <v>2.099199472146914</v>
       </c>
       <c r="H2">
-        <v>42.18990498903411</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>26.67405342569921</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.338233865567071</v>
+        <v>7.469997483216696</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>25.6647984677486</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.18368417653187</v>
       </c>
       <c r="M2">
-        <v>46.6036858889756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>30.59304700385817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46779528191456</v>
+        <v>17.26644995058142</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.072604661263796</v>
+        <v>5.43916715135932</v>
       </c>
       <c r="E3">
-        <v>11.46610909223947</v>
+        <v>10.15736071038348</v>
       </c>
       <c r="F3">
-        <v>47.96247023642125</v>
+        <v>37.86645270928953</v>
       </c>
       <c r="G3">
-        <v>38.90329959823174</v>
+        <v>2.111763184890787</v>
       </c>
       <c r="H3">
-        <v>38.62736741043253</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25.26608215834401</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>6.315941486032988</v>
+        <v>7.415131599192631</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>23.85558291696463</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.52102485064301</v>
       </c>
       <c r="M3">
-        <v>43.25525196321697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.61299090092567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89368314110288</v>
+        <v>16.65130201610821</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.688051510309645</v>
+        <v>5.249889598060522</v>
       </c>
       <c r="E4">
-        <v>11.11110600504064</v>
+        <v>9.970905750094715</v>
       </c>
       <c r="F4">
-        <v>45.21943823441911</v>
+        <v>37.17719334648567</v>
       </c>
       <c r="G4">
-        <v>36.64835957943556</v>
+        <v>2.119637008494345</v>
       </c>
       <c r="H4">
-        <v>36.42261061299391</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>24.39006561977335</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.307030857411505</v>
+        <v>7.381891203691119</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.68678634357821</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.12383201762237</v>
       </c>
       <c r="M4">
-        <v>41.11144397032768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>29.03440888566642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.65266948863467</v>
+        <v>16.39686432198461</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.52933070338174</v>
+        <v>5.171508693466763</v>
       </c>
       <c r="E5">
-        <v>10.96343936812442</v>
+        <v>9.89426113995931</v>
       </c>
       <c r="F5">
-        <v>44.09332316896403</v>
+        <v>36.90408509618606</v>
       </c>
       <c r="G5">
-        <v>35.72095055650991</v>
+        <v>2.122889315777758</v>
       </c>
       <c r="H5">
-        <v>35.51753639162103</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>24.03029905645509</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>6.304611546729245</v>
+        <v>7.368444255428336</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.19569015382854</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.95913572036523</v>
       </c>
       <c r="M5">
-        <v>40.21451816124371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.80445896049113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.61222041444745</v>
+        <v>16.35439600620098</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.502841835260555</v>
+        <v>5.158417761851393</v>
       </c>
       <c r="E6">
-        <v>10.93874363218888</v>
+        <v>9.88149428881343</v>
       </c>
       <c r="F6">
-        <v>43.90576340864422</v>
+        <v>36.85920385123665</v>
       </c>
       <c r="G6">
-        <v>35.56638219394381</v>
+        <v>2.123432092995162</v>
       </c>
       <c r="H6">
-        <v>35.36679531583849</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>23.97039780763541</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>6.304283167320963</v>
+        <v>7.366216997523023</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.11324340200976</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.931620869254955</v>
       </c>
       <c r="M6">
-        <v>40.06414521504161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.76662797878983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.89046144851098</v>
+        <v>16.64788545343947</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.685919641111671</v>
+        <v>5.248837602837688</v>
       </c>
       <c r="E7">
-        <v>11.10912642911252</v>
+        <v>9.969874780699683</v>
       </c>
       <c r="F7">
-        <v>45.20428783387366</v>
+        <v>37.17347870173779</v>
       </c>
       <c r="G7">
-        <v>36.63588939581287</v>
+        <v>2.119680689038945</v>
       </c>
       <c r="H7">
-        <v>36.41043380127502</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>24.38522470550093</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6.306993315068523</v>
+        <v>7.38170947036485</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.68022348222448</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.12162216911201</v>
       </c>
       <c r="M7">
-        <v>41.09944353084206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>29.031284103269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05659367487263</v>
+        <v>17.90934597442417</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.477358816524113</v>
+        <v>5.636935962321838</v>
       </c>
       <c r="E8">
-        <v>11.834205889847</v>
+        <v>10.35407881549137</v>
       </c>
       <c r="F8">
-        <v>50.86875774851713</v>
+        <v>38.62862997820455</v>
       </c>
       <c r="G8">
-        <v>41.28703498341951</v>
+        <v>2.103500518562989</v>
       </c>
       <c r="H8">
-        <v>40.96357704053121</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>26.19100108616609</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>6.329565282870887</v>
+        <v>7.450977991749753</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25.05285822282763</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.9348267411708</v>
       </c>
       <c r="M8">
-        <v>45.46657348648498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.25030886009874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.13051881274083</v>
+        <v>20.24998078380681</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.008487699078968</v>
+        <v>6.361102793827945</v>
       </c>
       <c r="E9">
-        <v>13.15074653337038</v>
+        <v>11.08777641928224</v>
       </c>
       <c r="F9">
-        <v>61.98134151156744</v>
+        <v>41.73156129226379</v>
       </c>
       <c r="G9">
-        <v>50.36514482680148</v>
+        <v>2.07286125968636</v>
       </c>
       <c r="H9">
-        <v>49.89909173732129</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>29.64370259340276</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>6.509128718274459</v>
+        <v>7.591097437826096</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>29.25741424295665</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.7271174636492</v>
       </c>
       <c r="M9">
-        <v>53.40439723543117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>32.8259410219087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.53680048885555</v>
+        <v>21.88311255649042</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.17740949892115</v>
+        <v>6.874314565224901</v>
       </c>
       <c r="E10">
-        <v>14.04907603965552</v>
+        <v>11.61714684989935</v>
       </c>
       <c r="F10">
-        <v>70.52311793407495</v>
+        <v>44.17063373503404</v>
       </c>
       <c r="G10">
-        <v>57.31806912568906</v>
+        <v>2.050736105003796</v>
       </c>
       <c r="H10">
-        <v>56.77147913485495</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>32.14550998778824</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.087270997411625</v>
+        <v>7.697886221881268</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.09086983445382</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.94524983444927</v>
       </c>
       <c r="M10">
-        <v>58.99500223329861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>34.83596085309927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.1552581588497</v>
+        <v>22.60725114460951</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.74059862699011</v>
+        <v>7.104866522845171</v>
       </c>
       <c r="E11">
-        <v>14.44282951470008</v>
+        <v>11.85672465921772</v>
       </c>
       <c r="F11">
-        <v>74.63694734930473</v>
+        <v>45.31777949285461</v>
       </c>
       <c r="G11">
-        <v>60.66213246710078</v>
+        <v>2.040681408149865</v>
       </c>
       <c r="H11">
-        <v>60.08306618423958</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>33.28620659412183</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.333689536338718</v>
+        <v>7.747647465178053</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>33.32881652114785</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.47767632631359</v>
       </c>
       <c r="M11">
-        <v>61.53851924403247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.7782121270609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.38693347234202</v>
+        <v>22.87882919663116</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.9615438197051</v>
+        <v>7.191877940949571</v>
       </c>
       <c r="E12">
-        <v>14.58992090723854</v>
+        <v>11.94736753834106</v>
       </c>
       <c r="F12">
-        <v>76.24856091304193</v>
+        <v>45.75795082954669</v>
       </c>
       <c r="G12">
-        <v>61.97163870610514</v>
+        <v>2.03686825780522</v>
       </c>
       <c r="H12">
-        <v>61.38077774497494</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>33.72006307414592</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.42441750103549</v>
+        <v>7.766696359185656</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>33.79068250922235</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.67635318227739</v>
       </c>
       <c r="M12">
-        <v>62.50919068805479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.13932721350332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.33713889801875</v>
+        <v>22.82045572896845</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.9135472817476</v>
+        <v>7.173149257000053</v>
       </c>
       <c r="E13">
-        <v>14.55832778198073</v>
+        <v>11.92784769709852</v>
       </c>
       <c r="F13">
-        <v>75.89861159100845</v>
+        <v>45.66288815020857</v>
       </c>
       <c r="G13">
-        <v>61.6873116099495</v>
+        <v>2.037689864306021</v>
       </c>
       <c r="H13">
-        <v>61.0989701698744</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>33.62650616498979</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.404997654888917</v>
+        <v>7.762584068093993</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>33.69151182779373</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.63369226122076</v>
       </c>
       <c r="M13">
-        <v>62.29964061076486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.06135727751809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.17436479400387</v>
+        <v>22.62964634126476</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.75859740836648</v>
+        <v>7.112030078161448</v>
       </c>
       <c r="E14">
-        <v>14.45496983436235</v>
+        <v>11.86418285542111</v>
       </c>
       <c r="F14">
-        <v>74.76829450215489</v>
+        <v>45.35387442514551</v>
       </c>
       <c r="G14">
-        <v>60.76886781075535</v>
+        <v>2.040367855882607</v>
       </c>
       <c r="H14">
-        <v>60.18882169178598</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>33.32185037745464</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.341207344661665</v>
+        <v>7.749210286118681</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>33.36695056606344</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.49407942479725</v>
       </c>
       <c r="M14">
-        <v>61.61816900188445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.80783292445846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.07435267780738</v>
+        <v>22.51242938920199</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.66481010617336</v>
+        <v>7.074558740911225</v>
       </c>
       <c r="E15">
-        <v>14.39140441711322</v>
+        <v>11.82517921773288</v>
       </c>
       <c r="F15">
-        <v>74.08377044462929</v>
+        <v>45.16535929679984</v>
       </c>
       <c r="G15">
-        <v>60.21258873639878</v>
+        <v>2.042007237297283</v>
       </c>
       <c r="H15">
-        <v>59.63768618964481</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>33.13554673643741</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.301788518077723</v>
+        <v>7.741046370623097</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>33.16725986660122</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.40818521723801</v>
       </c>
       <c r="M15">
-        <v>61.20201518426208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>35.65311318435905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.49599572798881</v>
+        <v>21.83541465892538</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.14146926883156</v>
+        <v>6.859198973223074</v>
       </c>
       <c r="E16">
-        <v>14.02305099516376</v>
+        <v>11.60147278513872</v>
       </c>
       <c r="F16">
-        <v>70.26041200242202</v>
+        <v>44.09645010131861</v>
       </c>
       <c r="G16">
-        <v>57.10443893702367</v>
+        <v>2.051392822756879</v>
       </c>
       <c r="H16">
-        <v>56.56004728602089</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>32.07112805050686</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.070819442483035</v>
+        <v>7.694660875225353</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>32.00897516904709</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.91003255001035</v>
       </c>
       <c r="M16">
-        <v>58.8293358296272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>34.77496645655595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13606202052764</v>
+        <v>21.41530590628543</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.830239218238475</v>
+        <v>6.726418108486784</v>
       </c>
       <c r="E17">
-        <v>13.79330868833168</v>
+        <v>11.46398133779718</v>
       </c>
       <c r="F17">
-        <v>67.98514657947894</v>
+        <v>43.45056127103446</v>
       </c>
       <c r="G17">
-        <v>55.25373132048376</v>
+        <v>2.057148432582003</v>
       </c>
       <c r="H17">
-        <v>54.72905912993621</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>31.41966639230562</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>6.924779798172248</v>
+        <v>7.666530876752446</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>31.28562138843284</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.59899296828714</v>
       </c>
       <c r="M17">
-        <v>57.37806357826276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>34.24357119720327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.926994437638</v>
+        <v>21.17189561213098</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.653933321471692</v>
+        <v>6.649763168236368</v>
       </c>
       <c r="E18">
-        <v>13.65975081027107</v>
+        <v>11.38477635695726</v>
       </c>
       <c r="F18">
-        <v>66.69626044025587</v>
+        <v>43.08257364222499</v>
       </c>
       <c r="G18">
-        <v>54.20492781558613</v>
+        <v>2.060460344556977</v>
       </c>
       <c r="H18">
-        <v>53.69199528180896</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>31.04508414896626</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>6.839238449127687</v>
+        <v>7.650460077054577</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>30.86473859386184</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.41803590523544</v>
       </c>
       <c r="M18">
-        <v>56.5427645901685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>33.94052777236674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85584387396006</v>
+        <v>21.08917517709556</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.594632465340464</v>
+        <v>6.62375714447619</v>
       </c>
       <c r="E19">
-        <v>13.61428556397354</v>
+        <v>11.35793512587319</v>
       </c>
       <c r="F19">
-        <v>66.26278733742774</v>
+        <v>42.95857312772774</v>
       </c>
       <c r="G19">
-        <v>53.85212366560628</v>
+        <v>2.061582148047612</v>
       </c>
       <c r="H19">
-        <v>53.34323693787179</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>30.91824333523795</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>6.810014491581152</v>
+        <v>7.645036500054167</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>30.72139370072686</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.35640883884932</v>
       </c>
       <c r="M19">
-        <v>56.25967958912845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>33.83836189989235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.17458585701182</v>
+        <v>21.46021060145588</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.863072451307071</v>
+        <v>6.740581314570314</v>
       </c>
       <c r="E20">
-        <v>13.81791126409463</v>
+        <v>11.4786296960721</v>
       </c>
       <c r="F20">
-        <v>68.2251862107489</v>
+        <v>43.51895165653449</v>
       </c>
       <c r="G20">
-        <v>55.44902330958121</v>
+        <v>2.0565356375491</v>
       </c>
       <c r="H20">
-        <v>54.92221144572893</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>31.48899444474663</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>6.9404866814349</v>
+        <v>7.669513864262156</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>31.36312054729816</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.6323151510249</v>
       </c>
       <c r="M20">
-        <v>57.53257032836945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>34.29986812405386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.22223840533924</v>
+        <v>22.68576249525773</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.80386727235341</v>
+        <v>7.129989102620716</v>
       </c>
       <c r="E21">
-        <v>14.48538136038336</v>
+        <v>11.88288402730064</v>
       </c>
       <c r="F21">
-        <v>75.0986089671803</v>
+        <v>45.44447904847336</v>
       </c>
       <c r="G21">
-        <v>61.03727980684764</v>
+        <v>2.039581480343592</v>
       </c>
       <c r="H21">
-        <v>60.45478433500965</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>33.41126721490089</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.360016706660387</v>
+        <v>7.753132600334148</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>33.46246621784716</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.53516537465472</v>
       </c>
       <c r="M21">
-        <v>61.81804992637907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.88217944147262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.89271167543388</v>
+        <v>23.47142602788386</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.4665994653944</v>
+        <v>7.38285627487029</v>
       </c>
       <c r="E22">
-        <v>14.91008794368973</v>
+        <v>12.14668605971942</v>
       </c>
       <c r="F22">
-        <v>79.92484999783834</v>
+        <v>46.73683340130562</v>
       </c>
       <c r="G22">
-        <v>64.95794918033958</v>
+        <v>2.028463880843045</v>
       </c>
       <c r="H22">
-        <v>64.34193292717755</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>34.69566481064989</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.618886271581276</v>
+        <v>7.809001040389836</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>34.79442473794311</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.10818688464192</v>
       </c>
       <c r="M22">
-        <v>64.66979334728839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.94162371705812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.53591714699267</v>
+        <v>23.05346812801882</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.10690002828418</v>
+        <v>7.247997296051735</v>
       </c>
       <c r="E23">
-        <v>14.68437206740187</v>
+        <v>12.00588740139281</v>
       </c>
       <c r="F23">
-        <v>77.30781664399512</v>
+        <v>46.04382147019088</v>
       </c>
       <c r="G23">
-        <v>62.83219617355365</v>
+        <v>2.034403586932134</v>
       </c>
       <c r="H23">
-        <v>62.23384525685361</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>34.00099770595519</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.482243154604879</v>
+        <v>7.77905796040092</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>34.08704841752594</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.8038479014284</v>
       </c>
       <c r="M23">
-        <v>63.13935103468717</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.37373523066071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.15717592321101</v>
+        <v>21.4399150616586</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.848220581414372</v>
+        <v>6.734179126941925</v>
       </c>
       <c r="E24">
-        <v>13.80679304380939</v>
+        <v>11.47200767650971</v>
       </c>
       <c r="F24">
-        <v>68.11660590275159</v>
+        <v>43.48802197809074</v>
       </c>
       <c r="G24">
-        <v>55.36068561764036</v>
+        <v>2.056812672519055</v>
       </c>
       <c r="H24">
-        <v>54.83483983900225</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>31.45765148443775</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>6.933390512177495</v>
+        <v>7.668164941989117</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>31.32809883536864</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.61725685945798</v>
       </c>
       <c r="M24">
-        <v>57.46272126050452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34.27440863322674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.591188160358</v>
+        <v>19.63178824787557</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.591836672550452</v>
+        <v>6.168831852787148</v>
       </c>
       <c r="E25">
-        <v>12.80650170356626</v>
+        <v>10.89121705762275</v>
       </c>
       <c r="F25">
-        <v>58.94409555655361</v>
+        <v>40.86487406579661</v>
       </c>
       <c r="G25">
-        <v>47.88849864124633</v>
+        <v>2.081060036272316</v>
       </c>
       <c r="H25">
-        <v>47.45638141948557</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>28.71800740295311</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6.384980207607116</v>
+        <v>7.552618191305808</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>28.166238783675</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.25820303392752</v>
       </c>
       <c r="M25">
-        <v>51.31229442285438</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>32.10902326720299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.24245805798088</v>
+        <v>7.261456842625267</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.739495352766984</v>
+        <v>3.077843805007878</v>
       </c>
       <c r="E2">
-        <v>10.45678857737858</v>
+        <v>29.95906545081906</v>
       </c>
       <c r="F2">
-        <v>39.03960847242863</v>
+        <v>25.86604944169103</v>
       </c>
       <c r="G2">
-        <v>2.099199472146914</v>
+        <v>37.2931173028968</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.97094575935423</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.469997483216696</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>25.6647984677486</v>
+        <v>19.81661417715389</v>
       </c>
       <c r="L2">
-        <v>11.18368417653187</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>30.59304700385817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.26644995058142</v>
+        <v>6.899818260148829</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.43916715135932</v>
+        <v>3.155168023746297</v>
       </c>
       <c r="E3">
-        <v>10.15736071038348</v>
+        <v>27.72994703958646</v>
       </c>
       <c r="F3">
-        <v>37.86645270928953</v>
+        <v>24.65774997283891</v>
       </c>
       <c r="G3">
-        <v>2.111763184890787</v>
+        <v>35.28745377935272</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.73986066304426</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.415131599192631</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>23.85558291696463</v>
+        <v>18.5882735851363</v>
       </c>
       <c r="L3">
-        <v>10.52102485064301</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.61299090092567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.65130201610821</v>
+        <v>6.671981813911565</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.249889598060522</v>
+        <v>3.20260812959141</v>
       </c>
       <c r="E4">
-        <v>9.970905750094715</v>
+        <v>26.30265650231739</v>
       </c>
       <c r="F4">
-        <v>37.17719334648567</v>
+        <v>23.92385687192267</v>
       </c>
       <c r="G4">
-        <v>2.119637008494345</v>
+        <v>34.06075570603232</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.60967369380663</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.381891203691119</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>22.68678634357821</v>
+        <v>17.79759421737666</v>
       </c>
       <c r="L4">
-        <v>10.12383201762237</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.03440888566642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.39686432198461</v>
+        <v>6.577800635968053</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.171508693466763</v>
+        <v>3.221957251645862</v>
       </c>
       <c r="E5">
-        <v>9.89426113995931</v>
+        <v>25.70580255878061</v>
       </c>
       <c r="F5">
-        <v>36.90408509618606</v>
+        <v>23.6270620055568</v>
       </c>
       <c r="G5">
-        <v>2.122889315777758</v>
+        <v>33.56250436282232</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.55947098067637</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.368444255428336</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>22.19569015382854</v>
+        <v>17.46617277180135</v>
       </c>
       <c r="L5">
-        <v>9.95913572036523</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>28.80445896049113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.35439600620098</v>
+        <v>6.562085146637274</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.158417761851393</v>
+        <v>3.225171920417261</v>
       </c>
       <c r="E6">
-        <v>9.88149428881343</v>
+        <v>25.60576266814212</v>
       </c>
       <c r="F6">
-        <v>36.85920385123665</v>
+        <v>23.57792528453525</v>
       </c>
       <c r="G6">
-        <v>2.123432092995162</v>
+        <v>33.47988403957214</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.55130417433728</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.366216997523023</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>22.11324340200976</v>
+        <v>17.41058343000153</v>
       </c>
       <c r="L6">
-        <v>9.931620869254955</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>28.76662797878983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.64788545343947</v>
+        <v>6.670716889225274</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.248837602837688</v>
+        <v>3.202868976504183</v>
       </c>
       <c r="E7">
-        <v>9.969874780699683</v>
+        <v>26.29466936444883</v>
       </c>
       <c r="F7">
-        <v>37.17347870173779</v>
+        <v>23.91984460988313</v>
       </c>
       <c r="G7">
-        <v>2.119680689038945</v>
+        <v>34.05402881997204</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.60898523007841</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.38170947036485</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>22.68022348222448</v>
+        <v>17.79316188827685</v>
       </c>
       <c r="L7">
-        <v>10.12162216911201</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.031284103269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.90934597442417</v>
+        <v>7.138030675856036</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.636935962321838</v>
+        <v>3.104529189174741</v>
       </c>
       <c r="E8">
-        <v>10.35407881549137</v>
+        <v>29.20232252970041</v>
       </c>
       <c r="F8">
-        <v>38.62862997820455</v>
+        <v>25.44790315264782</v>
       </c>
       <c r="G8">
-        <v>2.103500518562989</v>
+        <v>36.60079233684667</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.88878450226759</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.450977991749753</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>25.05285822282763</v>
+        <v>19.40061758749113</v>
       </c>
       <c r="L8">
-        <v>10.9348267411708</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.25030886009874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.24998078380681</v>
+        <v>8.004294854796788</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.361102793827945</v>
+        <v>2.910131727811009</v>
       </c>
       <c r="E9">
-        <v>11.08777641928224</v>
+        <v>34.46368961238117</v>
       </c>
       <c r="F9">
-        <v>41.73156129226379</v>
+        <v>28.50001760298792</v>
       </c>
       <c r="G9">
-        <v>2.07286125968636</v>
+        <v>41.62100034386354</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.53439139190241</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.591097437826096</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>29.25741424295665</v>
+        <v>22.26696416868783</v>
       </c>
       <c r="L9">
-        <v>12.7271174636492</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.8259410219087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.88311255649042</v>
+        <v>8.663741854630844</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.874314565224901</v>
+        <v>2.764517720217542</v>
       </c>
       <c r="E10">
-        <v>11.61714684989935</v>
+        <v>38.09951826658924</v>
       </c>
       <c r="F10">
-        <v>44.17063373503404</v>
+        <v>30.77165689574258</v>
       </c>
       <c r="G10">
-        <v>2.050736105003796</v>
+        <v>45.32059381380611</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.07369871549584</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.697886221881268</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>32.09086983445382</v>
+        <v>24.20578841442211</v>
       </c>
       <c r="L10">
-        <v>13.94524983444927</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.83596085309927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.60725114460951</v>
+        <v>8.982394055596506</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.104866522845171</v>
+        <v>2.697244809635622</v>
       </c>
       <c r="E11">
-        <v>11.85672465921772</v>
+        <v>39.71401732930859</v>
       </c>
       <c r="F11">
-        <v>45.31777949285461</v>
+        <v>31.81238301128123</v>
       </c>
       <c r="G11">
-        <v>2.040681408149865</v>
+        <v>47.03274435372708</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.33461854507637</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.747647465178053</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>33.32881652114785</v>
+        <v>25.05375644063007</v>
       </c>
       <c r="L11">
-        <v>14.47767632631359</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.7782121270609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.87882919663116</v>
+        <v>9.100792458339441</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.191877940949571</v>
+        <v>2.671586458440977</v>
       </c>
       <c r="E12">
-        <v>11.94736753834106</v>
+        <v>40.32074415858175</v>
       </c>
       <c r="F12">
-        <v>45.75795082954669</v>
+        <v>32.20775598787092</v>
       </c>
       <c r="G12">
-        <v>2.03686825780522</v>
+        <v>47.69569733186815</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.43580812392009</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.766696359185656</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>33.79068250922235</v>
+        <v>25.37020064454035</v>
       </c>
       <c r="L12">
-        <v>14.67635318227739</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.13932721350332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.82045572896845</v>
+        <v>9.075393248230901</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.173149257000053</v>
+        <v>2.677121159100469</v>
       </c>
       <c r="E13">
-        <v>11.92784769709852</v>
+        <v>40.19026324067501</v>
       </c>
       <c r="F13">
-        <v>45.66288815020857</v>
+        <v>32.12254397053473</v>
       </c>
       <c r="G13">
-        <v>2.037689864306021</v>
+        <v>47.55290717412446</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.41390648405463</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.762584068093993</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>33.69151182779373</v>
+        <v>25.30225200878962</v>
       </c>
       <c r="L13">
-        <v>14.63369226122076</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>36.06135727751809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.62964634126476</v>
+        <v>8.992179908722827</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.112030078161448</v>
+        <v>2.695137759379083</v>
       </c>
       <c r="E14">
-        <v>11.86418285542111</v>
+        <v>39.76401978994795</v>
       </c>
       <c r="F14">
-        <v>45.35387442514551</v>
+        <v>31.84488339903716</v>
       </c>
       <c r="G14">
-        <v>2.040367855882607</v>
+        <v>47.08728176096126</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.3428947550191</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.749210286118681</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>33.36695056606344</v>
+        <v>25.07988248608427</v>
       </c>
       <c r="L14">
-        <v>14.49407942479725</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.80783292445846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.51242938920199</v>
+        <v>8.940915561070481</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.074558740911225</v>
+        <v>2.706148509536863</v>
       </c>
       <c r="E15">
-        <v>11.82517921773288</v>
+        <v>39.502361309943</v>
       </c>
       <c r="F15">
-        <v>45.16535929679984</v>
+        <v>31.67498253572191</v>
       </c>
       <c r="G15">
-        <v>2.042007237297283</v>
+        <v>46.80209454461369</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.2997133310931</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.741046370623097</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>33.16725986660122</v>
+        <v>24.94307499217026</v>
       </c>
       <c r="L15">
-        <v>14.40818521723801</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.65311318435905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.83541465892538</v>
+        <v>8.642596839179669</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.859198973223074</v>
+        <v>2.768890380823856</v>
       </c>
       <c r="E16">
-        <v>11.60147278513872</v>
+        <v>37.99329678114019</v>
       </c>
       <c r="F16">
-        <v>44.09645010131861</v>
+        <v>30.70380653369807</v>
       </c>
       <c r="G16">
-        <v>2.051392822756879</v>
+        <v>45.21041385080733</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.05697231092623</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.694660875225353</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>32.00897516904709</v>
+        <v>24.14970582442262</v>
       </c>
       <c r="L16">
-        <v>13.91003255001035</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.77496645655595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.41530590628543</v>
+        <v>8.455490882490995</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.726418108486784</v>
+        <v>2.807091042629541</v>
       </c>
       <c r="E17">
-        <v>11.46398133779718</v>
+        <v>37.0581064033397</v>
       </c>
       <c r="F17">
-        <v>43.45056127103446</v>
+        <v>30.11001897978877</v>
       </c>
       <c r="G17">
-        <v>2.057148432582003</v>
+        <v>44.24542341507055</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.91214484284707</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.666530876752446</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>31.28562138843284</v>
+        <v>23.65443724111189</v>
       </c>
       <c r="L17">
-        <v>13.59899296828714</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.24357119720327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.17189561213098</v>
+        <v>8.346350364306828</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.649763168236368</v>
+        <v>2.82896801229585</v>
       </c>
       <c r="E18">
-        <v>11.38477635695726</v>
+        <v>36.51642539004852</v>
       </c>
       <c r="F18">
-        <v>43.08257364222499</v>
+        <v>29.76915952402712</v>
       </c>
       <c r="G18">
-        <v>2.060460344556977</v>
+        <v>43.69082187847491</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.83030106799623</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.650460077054577</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>30.86473859386184</v>
+        <v>23.36635434607506</v>
       </c>
       <c r="L18">
-        <v>13.41803590523544</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.94052777236674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.08917517709556</v>
+        <v>8.313848450598</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.62375714447619</v>
+        <v>2.836359927950648</v>
       </c>
       <c r="E19">
-        <v>11.35793512587319</v>
+        <v>36.33234300415488</v>
       </c>
       <c r="F19">
-        <v>42.95857312772774</v>
+        <v>29.65386106488717</v>
       </c>
       <c r="G19">
-        <v>2.061582148047612</v>
+        <v>43.50310779157959</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.80283647738456</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.645036500054167</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>30.72139370072686</v>
+        <v>23.2682555467697</v>
       </c>
       <c r="L19">
-        <v>13.35640883884932</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.83836189989235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.46021060145588</v>
+        <v>8.475565801900645</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.740581314570314</v>
+        <v>2.803034608662476</v>
       </c>
       <c r="E20">
-        <v>11.4786296960721</v>
+        <v>37.15804377850112</v>
       </c>
       <c r="F20">
-        <v>43.51895165653449</v>
+        <v>30.17315800720193</v>
       </c>
       <c r="G20">
-        <v>2.0565356375491</v>
+        <v>44.34810063599713</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.92741020701819</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.669513864262156</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>31.36312054729816</v>
+        <v>23.70749090837442</v>
       </c>
       <c r="L20">
-        <v>13.6323151510249</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.29986812405386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.68576249525773</v>
+        <v>9.016682806570952</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.129989102620716</v>
+        <v>2.689851105677676</v>
       </c>
       <c r="E21">
-        <v>11.88288402730064</v>
+        <v>39.88933495935618</v>
       </c>
       <c r="F21">
-        <v>45.44447904847336</v>
+        <v>31.92640216232445</v>
       </c>
       <c r="G21">
-        <v>2.039581480343592</v>
+        <v>47.2240414978029</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.36368661442184</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.753132600334148</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>33.46246621784716</v>
+        <v>25.14532232154441</v>
       </c>
       <c r="L21">
-        <v>14.53516537465472</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.88217944147262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.47142602788386</v>
+        <v>9.357140438415747</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.38285627487029</v>
+        <v>2.614793761166899</v>
       </c>
       <c r="E22">
-        <v>12.14668605971942</v>
+        <v>41.64790346111064</v>
       </c>
       <c r="F22">
-        <v>46.73683340130562</v>
+        <v>33.16391633706105</v>
       </c>
       <c r="G22">
-        <v>2.028463880843045</v>
+        <v>49.15437734906186</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.66280772407072</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.809001040389836</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>34.79442473794311</v>
+        <v>26.05798763384346</v>
       </c>
       <c r="L22">
-        <v>15.10818688464192</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.94162371705812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.05346812801882</v>
+        <v>9.176620585866639</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.247997296051735</v>
+        <v>2.654963936013204</v>
       </c>
       <c r="E23">
-        <v>12.00588740139281</v>
+        <v>40.71135983455559</v>
       </c>
       <c r="F23">
-        <v>46.04382147019088</v>
+        <v>32.47263158248993</v>
       </c>
       <c r="G23">
-        <v>2.034403586932134</v>
+        <v>48.12385026167019</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.50182608360516</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.77905796040092</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>34.08704841752594</v>
+        <v>25.57326821633574</v>
       </c>
       <c r="L23">
-        <v>14.8038479014284</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.37373523066071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.4399150616586</v>
+        <v>8.466494827432792</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.734179126941925</v>
+        <v>2.804868784889963</v>
       </c>
       <c r="E24">
-        <v>11.47200767650971</v>
+        <v>37.11287471094267</v>
       </c>
       <c r="F24">
-        <v>43.48802197809074</v>
+        <v>30.14461125750952</v>
       </c>
       <c r="G24">
-        <v>2.056812672519055</v>
+        <v>44.30167972139645</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.92050432504037</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.668164941989117</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>31.32809883536864</v>
+        <v>23.68351578528418</v>
       </c>
       <c r="L24">
-        <v>13.61725685945798</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.27440863322674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63178824787557</v>
+        <v>7.775823257604865</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.168831852787148</v>
+        <v>2.963072194096086</v>
       </c>
       <c r="E25">
-        <v>10.89121705762275</v>
+        <v>33.08380718571313</v>
       </c>
       <c r="F25">
-        <v>40.86487406579661</v>
+        <v>27.66918686283861</v>
       </c>
       <c r="G25">
-        <v>2.081060036272316</v>
+        <v>40.26118688327356</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.34877467602092</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.552618191305808</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>28.166238783675</v>
+        <v>21.52152056960747</v>
       </c>
       <c r="L25">
-        <v>12.25820303392752</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.10902326720299</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.261456842625267</v>
+        <v>7.798171611121401</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.077843805007878</v>
+        <v>4.474690696834815</v>
       </c>
       <c r="E2">
-        <v>29.95906545081906</v>
+        <v>16.48531796207418</v>
       </c>
       <c r="F2">
-        <v>25.86604944169103</v>
+        <v>26.05631150714657</v>
       </c>
       <c r="G2">
-        <v>37.2931173028968</v>
+        <v>32.62165228357534</v>
       </c>
       <c r="H2">
-        <v>10.97094575935423</v>
+        <v>14.62716152995666</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.81661417715389</v>
+        <v>11.80815382165913</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.899818260148829</v>
+        <v>7.726857158111801</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.155168023746297</v>
+        <v>4.488718641446136</v>
       </c>
       <c r="E3">
-        <v>27.72994703958646</v>
+        <v>15.548202864006</v>
       </c>
       <c r="F3">
-        <v>24.65774997283891</v>
+        <v>25.87975062817515</v>
       </c>
       <c r="G3">
-        <v>35.28745377935272</v>
+        <v>32.21707872641259</v>
       </c>
       <c r="H3">
-        <v>10.73986066304426</v>
+        <v>14.64181875524063</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.5882735851363</v>
+        <v>11.1729203446388</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.671981813911565</v>
+        <v>7.684635076878071</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.20260812959141</v>
+        <v>4.497648392147862</v>
       </c>
       <c r="E4">
-        <v>26.30265650231739</v>
+        <v>14.94846442266241</v>
       </c>
       <c r="F4">
-        <v>23.92385687192267</v>
+        <v>25.78087893220476</v>
       </c>
       <c r="G4">
-        <v>34.06075570603232</v>
+        <v>31.98154492478526</v>
       </c>
       <c r="H4">
-        <v>10.60967369380663</v>
+        <v>14.65484605124659</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.79759421737666</v>
+        <v>10.7617040526054</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.577800635968053</v>
+        <v>7.66784154203761</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.221957251645862</v>
+        <v>4.50136753528077</v>
       </c>
       <c r="E5">
-        <v>25.70580255878061</v>
+        <v>14.69821475571074</v>
       </c>
       <c r="F5">
-        <v>23.6270620055568</v>
+        <v>25.74301672522822</v>
       </c>
       <c r="G5">
-        <v>33.56250436282232</v>
+        <v>31.88891547326455</v>
       </c>
       <c r="H5">
-        <v>10.55947098067637</v>
+        <v>14.66116283631637</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.46617277180135</v>
+        <v>10.58887761902343</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562085146637274</v>
+        <v>7.66507842184571</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.225171920417261</v>
+        <v>4.501989957681123</v>
       </c>
       <c r="E6">
-        <v>25.60576266814212</v>
+        <v>14.65631653858642</v>
       </c>
       <c r="F6">
-        <v>23.57792528453525</v>
+        <v>25.73687721789727</v>
       </c>
       <c r="G6">
-        <v>33.47988403957214</v>
+        <v>31.87374006130931</v>
       </c>
       <c r="H6">
-        <v>10.55130417433728</v>
+        <v>14.6622724695198</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.41058343000153</v>
+        <v>10.5598651667472</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.670716889225274</v>
+        <v>7.684406899847426</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.202868976504183</v>
+        <v>4.497698224341965</v>
       </c>
       <c r="E7">
-        <v>26.29466936444883</v>
+        <v>14.94511276330694</v>
       </c>
       <c r="F7">
-        <v>23.91984460988313</v>
+        <v>25.78035843882758</v>
       </c>
       <c r="G7">
-        <v>34.05402881997204</v>
+        <v>31.98028197358042</v>
       </c>
       <c r="H7">
-        <v>10.60898523007841</v>
+        <v>14.65492716678574</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.79316188827685</v>
+        <v>10.75939441241652</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138030675856036</v>
+        <v>7.773268965766825</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.104529189174741</v>
+        <v>4.479462195153734</v>
       </c>
       <c r="E8">
-        <v>29.20232252970041</v>
+        <v>16.16740030896938</v>
       </c>
       <c r="F8">
-        <v>25.44790315264782</v>
+        <v>25.99347376072951</v>
       </c>
       <c r="G8">
-        <v>36.60079233684667</v>
+        <v>32.47955470377534</v>
       </c>
       <c r="H8">
-        <v>10.88878450226759</v>
+        <v>14.63137668487632</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.40061758749113</v>
+        <v>11.59356043256521</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.004294854796788</v>
+        <v>7.959090527140051</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.910131727811009</v>
+        <v>4.446185947940724</v>
       </c>
       <c r="E9">
-        <v>34.46368961238117</v>
+        <v>18.44633017329961</v>
       </c>
       <c r="F9">
-        <v>28.50001760298792</v>
+        <v>26.48547445317219</v>
       </c>
       <c r="G9">
-        <v>41.62100034386354</v>
+        <v>33.55529405824703</v>
       </c>
       <c r="H9">
-        <v>11.53439139190241</v>
+        <v>14.61734305045017</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.26696416868783</v>
+        <v>13.05884261341183</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.663741854630844</v>
+        <v>8.101475941776748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.764517720217542</v>
+        <v>4.42321532765346</v>
       </c>
       <c r="E10">
-        <v>38.09951826658924</v>
+        <v>20.0955935661945</v>
       </c>
       <c r="F10">
-        <v>30.77165689574258</v>
+        <v>26.8896427146984</v>
       </c>
       <c r="G10">
-        <v>45.32059381380611</v>
+        <v>34.3966814822108</v>
       </c>
       <c r="H10">
-        <v>12.07369871549584</v>
+        <v>14.62686046681531</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.20578841442211</v>
+        <v>14.02902604570867</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.982394055596506</v>
+        <v>8.167263434401081</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.697244809635622</v>
+        <v>4.413078446028126</v>
       </c>
       <c r="E11">
-        <v>39.71401732930859</v>
+        <v>20.80406955884616</v>
       </c>
       <c r="F11">
-        <v>31.81238301128123</v>
+        <v>27.08216538860639</v>
       </c>
       <c r="G11">
-        <v>47.03274435372708</v>
+        <v>34.78874967107185</v>
       </c>
       <c r="H11">
-        <v>12.33461854507637</v>
+        <v>14.63553319862568</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.05375644063007</v>
+        <v>14.44698255130692</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.100792458339441</v>
+        <v>8.192299432714384</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.671586458440977</v>
+        <v>4.409284235438133</v>
       </c>
       <c r="E12">
-        <v>40.32074415858175</v>
+        <v>21.06638142871904</v>
       </c>
       <c r="F12">
-        <v>32.20775598787092</v>
+        <v>27.15625766793558</v>
       </c>
       <c r="G12">
-        <v>47.69569733186815</v>
+        <v>34.93840246873502</v>
       </c>
       <c r="H12">
-        <v>12.43580812392009</v>
+        <v>14.6394439523078</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.37020064454035</v>
+        <v>14.60187225344108</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.075393248230901</v>
+        <v>8.186902336320408</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.677121159100469</v>
+        <v>4.410099420047495</v>
       </c>
       <c r="E13">
-        <v>40.19026324067501</v>
+        <v>21.01015294263207</v>
       </c>
       <c r="F13">
-        <v>32.12254397053473</v>
+        <v>27.14024867976736</v>
       </c>
       <c r="G13">
-        <v>47.55290717412446</v>
+        <v>34.90612182182938</v>
       </c>
       <c r="H13">
-        <v>12.41390648405463</v>
+        <v>14.63857380845124</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.30225200878962</v>
+        <v>14.56866460517253</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.992179908722827</v>
+        <v>8.1693208097743</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.695137759379083</v>
+        <v>4.412765407123478</v>
       </c>
       <c r="E14">
-        <v>39.76401978994795</v>
+        <v>20.8257696109346</v>
       </c>
       <c r="F14">
-        <v>31.84488339903716</v>
+        <v>27.08823753501618</v>
       </c>
       <c r="G14">
-        <v>47.08728176096126</v>
+        <v>34.80103883373521</v>
       </c>
       <c r="H14">
-        <v>12.3428947550191</v>
+        <v>14.63584237167604</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.07988248608427</v>
+        <v>14.45979327328498</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.940915561070481</v>
+        <v>8.15856706395628</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.706148509536863</v>
+        <v>4.414404168380011</v>
       </c>
       <c r="E15">
-        <v>39.502361309943</v>
+        <v>20.71205273977241</v>
       </c>
       <c r="F15">
-        <v>31.67498253572191</v>
+        <v>27.05653216854545</v>
       </c>
       <c r="G15">
-        <v>46.80209454461369</v>
+        <v>34.73682220187657</v>
       </c>
       <c r="H15">
-        <v>12.2997133310931</v>
+        <v>14.63425093657013</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.94307499217026</v>
+        <v>14.39266563590206</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.642596839179669</v>
+        <v>8.097195101632455</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.768890380823856</v>
+        <v>4.423884039900339</v>
       </c>
       <c r="E16">
-        <v>37.99329678114019</v>
+        <v>20.04845527816319</v>
       </c>
       <c r="F16">
-        <v>30.70380653369807</v>
+        <v>26.87723038380184</v>
       </c>
       <c r="G16">
-        <v>45.21041385080733</v>
+        <v>34.37123317938481</v>
       </c>
       <c r="H16">
-        <v>12.05697231092623</v>
+        <v>14.62638126735867</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.14970582442262</v>
+        <v>14.00123930828737</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.455490882490995</v>
+        <v>8.059789628217139</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.807091042629541</v>
+        <v>4.42977930185056</v>
       </c>
       <c r="E17">
-        <v>37.0581064033397</v>
+        <v>19.63068370883585</v>
       </c>
       <c r="F17">
-        <v>30.11001897978877</v>
+        <v>26.76941357895621</v>
       </c>
       <c r="G17">
-        <v>44.24542341507055</v>
+        <v>34.14923268294949</v>
       </c>
       <c r="H17">
-        <v>11.91214484284707</v>
+        <v>14.62266751833315</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.65443724111189</v>
+        <v>13.75510726423742</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.346350364306828</v>
+        <v>8.038371929024416</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.82896801229585</v>
+        <v>4.433199552609126</v>
       </c>
       <c r="E18">
-        <v>36.51642539004852</v>
+        <v>19.38645769528683</v>
       </c>
       <c r="F18">
-        <v>29.76915952402712</v>
+        <v>26.7082194217752</v>
       </c>
       <c r="G18">
-        <v>43.69082187847491</v>
+        <v>34.02243017468152</v>
       </c>
       <c r="H18">
-        <v>11.83030106799623</v>
+        <v>14.62094018890907</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.36635434607506</v>
+        <v>13.6113382148869</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.313848450598</v>
+        <v>8.031137594376185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.836359927950648</v>
+        <v>4.434362665807535</v>
       </c>
       <c r="E19">
-        <v>36.33234300415488</v>
+        <v>19.30309006027881</v>
       </c>
       <c r="F19">
-        <v>29.65386106488717</v>
+        <v>26.68764254424135</v>
       </c>
       <c r="G19">
-        <v>43.50310779157959</v>
+        <v>33.97965394590413</v>
       </c>
       <c r="H19">
-        <v>11.80283647738456</v>
+        <v>14.62042547112491</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.2682555467697</v>
+        <v>13.56228323310836</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.475565801900645</v>
+        <v>8.063761633728893</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.803034608662476</v>
+        <v>4.429148697016365</v>
       </c>
       <c r="E20">
-        <v>37.15804377850112</v>
+        <v>19.67556318860938</v>
       </c>
       <c r="F20">
-        <v>30.17315800720193</v>
+        <v>26.78080648560176</v>
       </c>
       <c r="G20">
-        <v>44.34810063599713</v>
+        <v>34.17277440395993</v>
       </c>
       <c r="H20">
-        <v>11.92741020701819</v>
+        <v>14.62302053578007</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.70749090837442</v>
+        <v>13.78153632851103</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.016682806570952</v>
+        <v>8.174481751016938</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.689851105677676</v>
+        <v>4.411981141159503</v>
       </c>
       <c r="E21">
-        <v>39.88933495935618</v>
+        <v>20.88008927704987</v>
       </c>
       <c r="F21">
-        <v>31.92640216232445</v>
+        <v>27.10348269919215</v>
       </c>
       <c r="G21">
-        <v>47.2240414978029</v>
+        <v>34.83187332695053</v>
       </c>
       <c r="H21">
-        <v>12.36368661442184</v>
+        <v>14.63662764256152</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.14532232154441</v>
+        <v>14.49186331052902</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.357140438415747</v>
+        <v>8.247554461078463</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.614793761166899</v>
+        <v>4.401019743816533</v>
       </c>
       <c r="E22">
-        <v>41.64790346111064</v>
+        <v>21.63252014740533</v>
       </c>
       <c r="F22">
-        <v>33.16391633706105</v>
+        <v>27.32126674289191</v>
       </c>
       <c r="G22">
-        <v>49.15437734906186</v>
+        <v>35.26946834846172</v>
       </c>
       <c r="H22">
-        <v>12.66280772407072</v>
+        <v>14.64917335966419</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.05798763384346</v>
+        <v>14.93638928895666</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.176620585866639</v>
+        <v>8.208496520258121</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.654963936013204</v>
+        <v>4.406846562001201</v>
       </c>
       <c r="E23">
-        <v>40.71135983455559</v>
+        <v>21.23410579946228</v>
       </c>
       <c r="F23">
-        <v>32.47263158248993</v>
+        <v>27.2044201120642</v>
       </c>
       <c r="G23">
-        <v>48.12385026167019</v>
+        <v>35.03534133870266</v>
       </c>
       <c r="H23">
-        <v>12.50182608360516</v>
+        <v>14.6421427411054</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.57326821633574</v>
+        <v>14.70094587966283</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.466494827432792</v>
+        <v>8.061965616712275</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.804868784889963</v>
+        <v>4.429433696862984</v>
       </c>
       <c r="E24">
-        <v>37.11287471094267</v>
+        <v>19.65528577385725</v>
       </c>
       <c r="F24">
-        <v>30.14461125750952</v>
+        <v>26.77565328369553</v>
       </c>
       <c r="G24">
-        <v>44.30167972139645</v>
+        <v>34.16212859927397</v>
       </c>
       <c r="H24">
-        <v>11.92050432504037</v>
+        <v>14.62285966657836</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.68351578528418</v>
+        <v>13.76959480047435</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.775823257604865</v>
+        <v>7.907703759762687</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.963072194096086</v>
+        <v>4.454925957908091</v>
       </c>
       <c r="E25">
-        <v>33.08380718571313</v>
+        <v>17.80168581028119</v>
       </c>
       <c r="F25">
-        <v>27.66918686283861</v>
+        <v>26.34468124832206</v>
       </c>
       <c r="G25">
-        <v>40.26118688327356</v>
+        <v>33.25472055204132</v>
       </c>
       <c r="H25">
-        <v>11.34877467602092</v>
+        <v>14.61767192313213</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.52152056960747</v>
+        <v>12.6809895545779</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.798171611121401</v>
+        <v>7.261456842625261</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.474690696834815</v>
+        <v>3.077843805007879</v>
       </c>
       <c r="E2">
-        <v>16.48531796207418</v>
+        <v>29.95906545081907</v>
       </c>
       <c r="F2">
-        <v>26.05631150714657</v>
+        <v>25.86604944169112</v>
       </c>
       <c r="G2">
-        <v>32.62165228357534</v>
+        <v>37.29311730289692</v>
       </c>
       <c r="H2">
-        <v>14.62716152995666</v>
+        <v>10.97094575935426</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.80815382165913</v>
+        <v>19.81661417715387</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.726857158111801</v>
+        <v>6.899818260148767</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.488718641446136</v>
+        <v>3.155168023746369</v>
       </c>
       <c r="E3">
-        <v>15.548202864006</v>
+        <v>27.72994703958654</v>
       </c>
       <c r="F3">
-        <v>25.87975062817515</v>
+        <v>24.65774997283883</v>
       </c>
       <c r="G3">
-        <v>32.21707872641259</v>
+        <v>35.2874537793526</v>
       </c>
       <c r="H3">
-        <v>14.64181875524063</v>
+        <v>10.73986066304418</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.1729203446388</v>
+        <v>18.58827358513633</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.684635076878071</v>
+        <v>6.671981813911529</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.497648392147862</v>
+        <v>3.202608129591408</v>
       </c>
       <c r="E4">
-        <v>14.94846442266241</v>
+        <v>26.30265650231736</v>
       </c>
       <c r="F4">
-        <v>25.78087893220476</v>
+        <v>23.92385687192268</v>
       </c>
       <c r="G4">
-        <v>31.98154492478526</v>
+        <v>34.06075570603233</v>
       </c>
       <c r="H4">
-        <v>14.65484605124659</v>
+        <v>10.60967369380664</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.7617040526054</v>
+        <v>17.79759421737666</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.66784154203761</v>
+        <v>6.577800635968053</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.50136753528077</v>
+        <v>3.22195725164587</v>
       </c>
       <c r="E5">
-        <v>14.69821475571074</v>
+        <v>25.70580255878049</v>
       </c>
       <c r="F5">
-        <v>25.74301672522822</v>
+        <v>23.62706200555679</v>
       </c>
       <c r="G5">
-        <v>31.88891547326455</v>
+        <v>33.56250436282226</v>
       </c>
       <c r="H5">
-        <v>14.66116283631637</v>
+        <v>10.55947098067634</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.58887761902343</v>
+        <v>17.46617277180125</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.66507842184571</v>
+        <v>6.562085146637308</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.501989957681123</v>
+        <v>3.225171920417524</v>
       </c>
       <c r="E6">
-        <v>14.65631653858642</v>
+        <v>25.60576266814209</v>
       </c>
       <c r="F6">
-        <v>25.73687721789727</v>
+        <v>23.5779252845352</v>
       </c>
       <c r="G6">
-        <v>31.87374006130931</v>
+        <v>33.47988403957217</v>
       </c>
       <c r="H6">
-        <v>14.6622724695198</v>
+        <v>10.55130417433734</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.5598651667472</v>
+        <v>17.41058343000151</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.684406899847426</v>
+        <v>6.670716889225245</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.497698224341965</v>
+        <v>3.202868976504242</v>
       </c>
       <c r="E7">
-        <v>14.94511276330694</v>
+        <v>26.29466936444888</v>
       </c>
       <c r="F7">
-        <v>25.78035843882758</v>
+        <v>23.91984460988299</v>
       </c>
       <c r="G7">
-        <v>31.98028197358042</v>
+        <v>34.05402881997199</v>
       </c>
       <c r="H7">
-        <v>14.65492716678574</v>
+        <v>10.60898523007825</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.75939441241652</v>
+        <v>17.79316188827695</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.773268965766825</v>
+        <v>7.138030675856003</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.479462195153734</v>
+        <v>3.104529189174607</v>
       </c>
       <c r="E8">
-        <v>16.16740030896938</v>
+        <v>29.20232252970038</v>
       </c>
       <c r="F8">
-        <v>25.99347376072951</v>
+        <v>25.44790315264787</v>
       </c>
       <c r="G8">
-        <v>32.47955470377534</v>
+        <v>36.60079233684669</v>
       </c>
       <c r="H8">
-        <v>14.63137668487632</v>
+        <v>10.88878450226768</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.59356043256521</v>
+        <v>19.40061758749107</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.959090527140051</v>
+        <v>8.004294854796743</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.446185947940724</v>
+        <v>2.910131727810811</v>
       </c>
       <c r="E9">
-        <v>18.44633017329961</v>
+        <v>34.46368961238109</v>
       </c>
       <c r="F9">
-        <v>26.48547445317219</v>
+        <v>28.50001760298792</v>
       </c>
       <c r="G9">
-        <v>33.55529405824703</v>
+        <v>41.62100034386355</v>
       </c>
       <c r="H9">
-        <v>14.61734305045017</v>
+        <v>11.53439139190241</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.05884261341183</v>
+        <v>22.26696416868788</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.101475941776748</v>
+        <v>8.663741854630876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.42321532765346</v>
+        <v>2.7645177202176</v>
       </c>
       <c r="E10">
-        <v>20.0955935661945</v>
+        <v>38.0995182665892</v>
       </c>
       <c r="F10">
-        <v>26.8896427146984</v>
+        <v>30.7716568957426</v>
       </c>
       <c r="G10">
-        <v>34.3966814822108</v>
+        <v>45.32059381380608</v>
       </c>
       <c r="H10">
-        <v>14.62686046681531</v>
+        <v>12.07369871549584</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.02902604570867</v>
+        <v>24.2057884144221</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.167263434401081</v>
+        <v>8.982394055596442</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.413078446028126</v>
+        <v>2.697244809635625</v>
       </c>
       <c r="E11">
-        <v>20.80406955884616</v>
+        <v>39.71401732930847</v>
       </c>
       <c r="F11">
-        <v>27.08216538860639</v>
+        <v>31.8123830112812</v>
       </c>
       <c r="G11">
-        <v>34.78874967107185</v>
+        <v>47.03274435372703</v>
       </c>
       <c r="H11">
-        <v>14.63553319862568</v>
+        <v>12.33461854507635</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.44698255130692</v>
+        <v>25.0537564406301</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.192299432714384</v>
+        <v>9.100792458339411</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.409284235438133</v>
+        <v>2.671586458440998</v>
       </c>
       <c r="E12">
-        <v>21.06638142871904</v>
+        <v>40.32074415858174</v>
       </c>
       <c r="F12">
-        <v>27.15625766793558</v>
+        <v>32.2077559878708</v>
       </c>
       <c r="G12">
-        <v>34.93840246873502</v>
+        <v>47.69569733186789</v>
       </c>
       <c r="H12">
-        <v>14.6394439523078</v>
+        <v>12.43580812392</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.60187225344108</v>
+        <v>25.37020064454034</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.186902336320408</v>
+        <v>9.075393248230826</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.410099420047495</v>
+        <v>2.677121159100728</v>
       </c>
       <c r="E13">
-        <v>21.01015294263207</v>
+        <v>40.19026324067504</v>
       </c>
       <c r="F13">
-        <v>27.14024867976736</v>
+        <v>32.12254397053479</v>
       </c>
       <c r="G13">
-        <v>34.90612182182938</v>
+        <v>47.55290717412447</v>
       </c>
       <c r="H13">
-        <v>14.63857380845124</v>
+        <v>12.41390648405469</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.56866460517253</v>
+        <v>25.30225200878961</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.1693208097743</v>
+        <v>8.992179908722802</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.412765407123478</v>
+        <v>2.695137759379016</v>
       </c>
       <c r="E14">
-        <v>20.8257696109346</v>
+        <v>39.76401978994794</v>
       </c>
       <c r="F14">
-        <v>27.08823753501618</v>
+        <v>31.84488339903712</v>
       </c>
       <c r="G14">
-        <v>34.80103883373521</v>
+        <v>47.08728176096115</v>
       </c>
       <c r="H14">
-        <v>14.63584237167604</v>
+        <v>12.34289475501914</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.45979327328498</v>
+        <v>25.07988248608419</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.15856706395628</v>
+        <v>8.940915561070462</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.414404168380011</v>
+        <v>2.706148509537048</v>
       </c>
       <c r="E15">
-        <v>20.71205273977241</v>
+        <v>39.50236130994314</v>
       </c>
       <c r="F15">
-        <v>27.05653216854545</v>
+        <v>31.67498253572196</v>
       </c>
       <c r="G15">
-        <v>34.73682220187657</v>
+        <v>46.80209454461379</v>
       </c>
       <c r="H15">
-        <v>14.63425093657013</v>
+        <v>12.29971333109308</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.39266563590206</v>
+        <v>24.94307499217032</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.097195101632455</v>
+        <v>8.642596839179676</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.423884039900339</v>
+        <v>2.768890380823853</v>
       </c>
       <c r="E16">
-        <v>20.04845527816319</v>
+        <v>37.99329678114027</v>
       </c>
       <c r="F16">
-        <v>26.87723038380184</v>
+        <v>30.70380653369807</v>
       </c>
       <c r="G16">
-        <v>34.37123317938481</v>
+        <v>45.21041385080735</v>
       </c>
       <c r="H16">
-        <v>14.62638126735867</v>
+        <v>12.0569723109262</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.00123930828737</v>
+        <v>24.14970582442266</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.059789628217139</v>
+        <v>8.455490882490972</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.42977930185056</v>
+        <v>2.807091042629604</v>
       </c>
       <c r="E17">
-        <v>19.63068370883585</v>
+        <v>37.05810640333974</v>
       </c>
       <c r="F17">
-        <v>26.76941357895621</v>
+        <v>30.11001897978877</v>
       </c>
       <c r="G17">
-        <v>34.14923268294949</v>
+        <v>44.24542341507062</v>
       </c>
       <c r="H17">
-        <v>14.62266751833315</v>
+        <v>11.91214484284708</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.75510726423742</v>
+        <v>23.65443724111192</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.038371929024416</v>
+        <v>8.346350364306801</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.433199552609126</v>
+        <v>2.828968012295858</v>
       </c>
       <c r="E18">
-        <v>19.38645769528683</v>
+        <v>36.51642539004848</v>
       </c>
       <c r="F18">
-        <v>26.7082194217752</v>
+        <v>29.76915952402711</v>
       </c>
       <c r="G18">
-        <v>34.02243017468152</v>
+        <v>43.69082187847491</v>
       </c>
       <c r="H18">
-        <v>14.62094018890907</v>
+        <v>11.83030106799622</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.6113382148869</v>
+        <v>23.36635434607506</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.031137594376185</v>
+        <v>8.313848450597998</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.434362665807535</v>
+        <v>2.836359927950772</v>
       </c>
       <c r="E19">
-        <v>19.30309006027881</v>
+        <v>36.33234300415496</v>
       </c>
       <c r="F19">
-        <v>26.68764254424135</v>
+        <v>29.65386106488721</v>
       </c>
       <c r="G19">
-        <v>33.97965394590413</v>
+        <v>43.50310779157969</v>
       </c>
       <c r="H19">
-        <v>14.62042547112491</v>
+        <v>11.80283647738457</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.56228323310836</v>
+        <v>23.26825554676977</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.063761633728893</v>
+        <v>8.475565801900647</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.429148697016365</v>
+        <v>2.80303460866254</v>
       </c>
       <c r="E20">
-        <v>19.67556318860938</v>
+        <v>37.15804377850105</v>
       </c>
       <c r="F20">
-        <v>26.78080648560176</v>
+        <v>30.17315800720192</v>
       </c>
       <c r="G20">
-        <v>34.17277440395993</v>
+        <v>44.3481006359971</v>
       </c>
       <c r="H20">
-        <v>14.62302053578007</v>
+        <v>11.92741020701823</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.78153632851103</v>
+        <v>23.70749090837437</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.174481751016938</v>
+        <v>9.016682806570977</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.411981141159503</v>
+        <v>2.689851105677736</v>
       </c>
       <c r="E21">
-        <v>20.88008927704987</v>
+        <v>39.88933495935619</v>
       </c>
       <c r="F21">
-        <v>27.10348269919215</v>
+        <v>31.92640216232448</v>
       </c>
       <c r="G21">
-        <v>34.83187332695053</v>
+        <v>47.22404149780299</v>
       </c>
       <c r="H21">
-        <v>14.63662764256152</v>
+        <v>12.36368661442182</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.49186331052902</v>
+        <v>25.14532232154442</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.247554461078463</v>
+        <v>9.357140438415721</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.401019743816533</v>
+        <v>2.61479376116696</v>
       </c>
       <c r="E22">
-        <v>21.63252014740533</v>
+        <v>41.64790346111068</v>
       </c>
       <c r="F22">
-        <v>27.32126674289191</v>
+        <v>33.16391633706102</v>
       </c>
       <c r="G22">
-        <v>35.26946834846172</v>
+        <v>49.15437734906182</v>
       </c>
       <c r="H22">
-        <v>14.64917335966419</v>
+        <v>12.66280772407072</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.93638928895666</v>
+        <v>26.05798763384346</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.208496520258121</v>
+        <v>9.176620585866619</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.406846562001201</v>
+        <v>2.654963936013206</v>
       </c>
       <c r="E23">
-        <v>21.23410579946228</v>
+        <v>40.71135983455564</v>
       </c>
       <c r="F23">
-        <v>27.2044201120642</v>
+        <v>32.47263158248992</v>
       </c>
       <c r="G23">
-        <v>35.03534133870266</v>
+        <v>48.12385026167019</v>
       </c>
       <c r="H23">
-        <v>14.6421427411054</v>
+        <v>12.50182608360516</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.70094587966283</v>
+        <v>25.57326821633579</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.061965616712275</v>
+        <v>8.466494827432729</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.429433696862984</v>
+        <v>2.804868784890028</v>
       </c>
       <c r="E24">
-        <v>19.65528577385725</v>
+        <v>37.11287471094251</v>
       </c>
       <c r="F24">
-        <v>26.77565328369553</v>
+        <v>30.14461125750948</v>
       </c>
       <c r="G24">
-        <v>34.16212859927397</v>
+        <v>44.3016797213964</v>
       </c>
       <c r="H24">
-        <v>14.62285966657836</v>
+        <v>11.92050432504041</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.76959480047435</v>
+        <v>23.6835157852842</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.907703759762687</v>
+        <v>7.775823257604829</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.454925957908091</v>
+        <v>2.963072194096283</v>
       </c>
       <c r="E25">
-        <v>17.80168581028119</v>
+        <v>33.08380718571328</v>
       </c>
       <c r="F25">
-        <v>26.34468124832206</v>
+        <v>27.66918686283865</v>
       </c>
       <c r="G25">
-        <v>33.25472055204132</v>
+        <v>40.26118688327362</v>
       </c>
       <c r="H25">
-        <v>14.61767192313213</v>
+        <v>11.34877467602096</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.6809895545779</v>
+        <v>21.5215205696074</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.261456842625261</v>
+        <v>12.62439443070902</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.077843805007879</v>
+        <v>6.598890584310567</v>
       </c>
       <c r="E2">
-        <v>29.95906545081907</v>
+        <v>9.683910864625233</v>
       </c>
       <c r="F2">
-        <v>25.86604944169112</v>
+        <v>20.13903359696531</v>
       </c>
       <c r="G2">
-        <v>37.29311730289692</v>
+        <v>21.20026803036225</v>
       </c>
       <c r="H2">
-        <v>10.97094575935426</v>
+        <v>2.864782394314795</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.316564801665053</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.904690701830267</v>
       </c>
       <c r="K2">
-        <v>19.81661417715387</v>
+        <v>16.70093116018955</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.983702616388424</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.01626882417668</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.06064194699199</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.29214664017826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.899818260148767</v>
+        <v>11.88518723552363</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.155168023746369</v>
+        <v>6.465981915067495</v>
       </c>
       <c r="E3">
-        <v>27.72994703958654</v>
+        <v>9.616540870632553</v>
       </c>
       <c r="F3">
-        <v>24.65774997283883</v>
+        <v>20.03748296930555</v>
       </c>
       <c r="G3">
-        <v>35.2874537793526</v>
+        <v>21.03868191426282</v>
       </c>
       <c r="H3">
-        <v>10.73986066304418</v>
+        <v>3.03823472926118</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.434207641422812</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.9584448765142</v>
       </c>
       <c r="K3">
-        <v>18.58827358513633</v>
+        <v>16.89597522564602</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.95338979018743</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.31428583317128</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.718277717434034</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.32763859339138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.671981813911529</v>
+        <v>11.40432533297874</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.202608129591408</v>
+        <v>6.383261969330585</v>
       </c>
       <c r="E4">
-        <v>26.30265650231736</v>
+        <v>9.573707264497191</v>
       </c>
       <c r="F4">
-        <v>23.92385687192268</v>
+        <v>19.98283473719055</v>
       </c>
       <c r="G4">
-        <v>34.06075570603233</v>
+        <v>20.95178185394315</v>
       </c>
       <c r="H4">
-        <v>10.60967369380664</v>
+        <v>3.148771271220431</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.50974486944685</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.994424522185993</v>
       </c>
       <c r="K4">
-        <v>17.79759421737666</v>
+        <v>17.01837176482713</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.933907725571366</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.86473372695558</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.501618705262759</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.35591805030492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.577800635968053</v>
+        <v>11.19499964089172</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.22195725164587</v>
+        <v>6.348061800147847</v>
       </c>
       <c r="E5">
-        <v>25.70580255878049</v>
+        <v>9.553542820345665</v>
       </c>
       <c r="F5">
-        <v>23.62706200555679</v>
+        <v>19.95573836740537</v>
       </c>
       <c r="G5">
-        <v>33.56250436282226</v>
+        <v>20.90918851051562</v>
       </c>
       <c r="H5">
-        <v>10.55947098067634</v>
+        <v>3.19509520410703</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.54373122959673</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.008171982784202</v>
       </c>
       <c r="K5">
-        <v>17.46617277180125</v>
+        <v>17.06444399602989</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.925201066264816</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.682242374186</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.417573468394804</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.36489196283223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.562085146637308</v>
+        <v>11.15168124712799</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.225171920417524</v>
+        <v>6.340677621804399</v>
       </c>
       <c r="E6">
-        <v>25.60576266814209</v>
+        <v>9.547315603767666</v>
       </c>
       <c r="F6">
-        <v>23.5779252845352</v>
+        <v>19.9431139547796</v>
       </c>
       <c r="G6">
-        <v>33.47988403957217</v>
+        <v>20.88980652840242</v>
       </c>
       <c r="H6">
-        <v>10.55130417433734</v>
+        <v>3.203157449307457</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.552439004441496</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.008485917799163</v>
       </c>
       <c r="K6">
-        <v>17.41058343000151</v>
+        <v>17.06668194170368</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.923081072651375</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.65808502460909</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.410597481036673</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.36142374594245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.670716889225245</v>
+        <v>11.37972241407079</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.202868976504242</v>
+        <v>6.378656162549152</v>
       </c>
       <c r="E7">
-        <v>26.29466936444888</v>
+        <v>9.565689030311225</v>
       </c>
       <c r="F7">
-        <v>23.91984460988299</v>
+        <v>19.96004799161571</v>
       </c>
       <c r="G7">
-        <v>34.05402881997199</v>
+        <v>20.91722956378822</v>
       </c>
       <c r="H7">
-        <v>10.60898523007825</v>
+        <v>3.150212326016456</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.518154126774949</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.989126651725835</v>
       </c>
       <c r="K7">
-        <v>17.79316188827695</v>
+        <v>17.00414352617833</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.932024210349088</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.87954516771511</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.519443529973695</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.34226990964425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138030675856003</v>
+        <v>12.34832463876045</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.104529189174607</v>
+        <v>6.548008504651577</v>
       </c>
       <c r="E8">
-        <v>29.20232252970038</v>
+        <v>9.651001903781973</v>
       </c>
       <c r="F8">
-        <v>25.44790315264787</v>
+        <v>20.07319234534709</v>
       </c>
       <c r="G8">
-        <v>36.60079233684669</v>
+        <v>21.0977846093863</v>
       </c>
       <c r="H8">
-        <v>10.88878450226768</v>
+        <v>2.924755093398714</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.366402572910822</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.915415385946654</v>
       </c>
       <c r="K8">
-        <v>19.40061758749107</v>
+        <v>16.7482699307189</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.971266009057489</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.79979622277452</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.967529425929035</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.28496997846845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.004294854796743</v>
+        <v>14.06606566056617</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.910131727810811</v>
+        <v>6.876869827182733</v>
       </c>
       <c r="E9">
-        <v>34.46368961238109</v>
+        <v>9.820000249963009</v>
       </c>
       <c r="F9">
-        <v>28.50001760298792</v>
+        <v>20.396587977687</v>
       </c>
       <c r="G9">
-        <v>41.62100034386355</v>
+        <v>21.61151428123466</v>
       </c>
       <c r="H9">
-        <v>11.53439139190241</v>
+        <v>2.512812379435672</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.081850155832903</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.804933605801793</v>
       </c>
       <c r="K9">
-        <v>22.26696416868788</v>
+        <v>16.29307537818269</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.044353094944812</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>15.424402467419</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.760850694358804</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.25066570112406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.663741854630876</v>
+        <v>15.1491424345683</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.7645177202176</v>
+        <v>7.065698360408525</v>
       </c>
       <c r="E10">
-        <v>38.0995182665892</v>
+        <v>9.877919061240908</v>
       </c>
       <c r="F10">
-        <v>30.7716568957426</v>
+        <v>20.5434685726978</v>
       </c>
       <c r="G10">
-        <v>45.32059381380608</v>
+        <v>21.88005074765612</v>
       </c>
       <c r="H10">
-        <v>12.07369871549584</v>
+        <v>2.255276598102754</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.896906255692124</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.711630844008544</v>
       </c>
       <c r="K10">
-        <v>24.2057884144221</v>
+        <v>15.91834028497121</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.088020366557052</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.55709526969587</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.248209348487464</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.18983023682346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.982394055596442</v>
+        <v>15.28082240709843</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.697244809635625</v>
+        <v>6.779827495557746</v>
       </c>
       <c r="E11">
-        <v>39.71401732930847</v>
+        <v>9.513493897694925</v>
       </c>
       <c r="F11">
-        <v>31.8123830112812</v>
+        <v>19.5555571576669</v>
       </c>
       <c r="G11">
-        <v>47.03274435372703</v>
+        <v>20.60805666028796</v>
       </c>
       <c r="H11">
-        <v>12.33461854507635</v>
+        <v>3.104072964256006</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.86495973162801</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.444034833610942</v>
       </c>
       <c r="K11">
-        <v>25.0537564406301</v>
+        <v>15.38166433489717</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.118210593892893</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.32142487481933</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.911876440777116</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.58787960787499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.100792458339411</v>
+        <v>15.19381112659645</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.671586458440998</v>
+        <v>6.508706176863835</v>
       </c>
       <c r="E12">
-        <v>40.32074415858174</v>
+        <v>9.344352713861172</v>
       </c>
       <c r="F12">
-        <v>32.2077559878708</v>
+        <v>18.7176874916584</v>
       </c>
       <c r="G12">
-        <v>47.69569733186789</v>
+        <v>19.50890038481965</v>
       </c>
       <c r="H12">
-        <v>12.43580812392</v>
+        <v>4.385266434839441</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.859600807294561</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.245156951822381</v>
       </c>
       <c r="K12">
-        <v>25.37020064454034</v>
+        <v>15.0841438073033</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.21258324775093</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>17.71862641938652</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.501320583618115</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.10930653533699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.075393248230826</v>
+        <v>14.9048114891872</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.677121159100728</v>
+        <v>6.225125405110037</v>
       </c>
       <c r="E13">
-        <v>40.19026324067504</v>
+        <v>9.30693068497883</v>
       </c>
       <c r="F13">
-        <v>32.12254397053479</v>
+        <v>17.90995571562812</v>
       </c>
       <c r="G13">
-        <v>47.55290717412447</v>
+        <v>18.41757663460777</v>
       </c>
       <c r="H13">
-        <v>12.41390648405469</v>
+        <v>5.75599673378124</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.886944247340159</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.079419114591751</v>
       </c>
       <c r="K13">
-        <v>25.30225200878961</v>
+        <v>14.93230112081804</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.353309375754992</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>17.88902691964351</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.043982775899014</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.67645666494666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.992179908722802</v>
+        <v>14.60177172136186</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.695137759379016</v>
+        <v>6.021425388306446</v>
       </c>
       <c r="E14">
-        <v>39.76401978994794</v>
+        <v>9.359213045888616</v>
       </c>
       <c r="F14">
-        <v>31.84488339903712</v>
+        <v>17.35788403258948</v>
       </c>
       <c r="G14">
-        <v>47.08728176096115</v>
+        <v>17.65189418157593</v>
       </c>
       <c r="H14">
-        <v>12.34289475501914</v>
+        <v>6.74100978075263</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.92321196007917</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.978557143290269</v>
       </c>
       <c r="K14">
-        <v>25.07988248608419</v>
+        <v>14.89882147710689</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.479472143376961</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>17.91226913028548</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.691680082219141</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.3943805798169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.940915561070462</v>
+        <v>14.47715013422748</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.706148509537048</v>
+        <v>5.967551982975579</v>
       </c>
       <c r="E15">
-        <v>39.50236130994314</v>
+        <v>9.38103414100493</v>
       </c>
       <c r="F15">
-        <v>31.67498253572196</v>
+        <v>17.22462338114618</v>
       </c>
       <c r="G15">
-        <v>46.80209454461379</v>
+        <v>17.45932051279265</v>
       </c>
       <c r="H15">
-        <v>12.29971333109308</v>
+        <v>6.971824918867806</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.943055482098271</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.959706450874481</v>
       </c>
       <c r="K15">
-        <v>24.94307499217032</v>
+        <v>14.91289864102074</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.510991787596483</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>17.87469118815922</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.593822224030397</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.33224471744073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.642596839179676</v>
+        <v>14.05905608492276</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.768890380823853</v>
+        <v>5.937218869049006</v>
       </c>
       <c r="E16">
-        <v>37.99329678114027</v>
+        <v>9.353763528482018</v>
       </c>
       <c r="F16">
-        <v>30.70380653369807</v>
+        <v>17.30840001364816</v>
       </c>
       <c r="G16">
-        <v>45.21041385080735</v>
+        <v>17.52609288270995</v>
       </c>
       <c r="H16">
-        <v>12.0569723109262</v>
+        <v>6.782444750588551</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.022085477106881</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.030926317895705</v>
       </c>
       <c r="K16">
-        <v>24.14970582442266</v>
+        <v>15.09377050070573</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.456549635709509</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.39531193939529</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.443323043147562</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.43859091065222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.455490882490972</v>
+        <v>13.90042320657261</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.807091042629604</v>
+        <v>6.022169938455246</v>
       </c>
       <c r="E17">
-        <v>37.05810640333974</v>
+        <v>9.292461392309729</v>
       </c>
       <c r="F17">
-        <v>30.11001897978877</v>
+        <v>17.66426072122056</v>
       </c>
       <c r="G17">
-        <v>44.24542341507062</v>
+        <v>17.98607983853142</v>
       </c>
       <c r="H17">
-        <v>11.91214484284708</v>
+        <v>6.085120214347985</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.063997231738841</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.138461379561356</v>
       </c>
       <c r="K17">
-        <v>23.65443724111192</v>
+        <v>15.24565680860275</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.342407300041569</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.00765647534924</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.521542662621267</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.66843058446339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.346350364306801</v>
+        <v>13.96757392925393</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.828968012295858</v>
+        <v>6.223981127066634</v>
       </c>
       <c r="E18">
-        <v>36.51642539004848</v>
+        <v>9.268017007210142</v>
       </c>
       <c r="F18">
-        <v>29.76915952402711</v>
+        <v>18.31457748506076</v>
       </c>
       <c r="G18">
-        <v>43.69082187847491</v>
+        <v>18.85934329786333</v>
       </c>
       <c r="H18">
-        <v>11.83030106799622</v>
+        <v>4.911905073244135</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.068578552081386</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.294124987143183</v>
       </c>
       <c r="K18">
-        <v>23.36635434607506</v>
+        <v>15.42481298652879</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.194767199395412</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.64932870366547</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.833112271787285</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.04196277049519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.313848450597998</v>
+        <v>14.1758773794864</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.836359927950772</v>
+        <v>6.505769153630991</v>
       </c>
       <c r="E19">
-        <v>36.33234300415496</v>
+        <v>9.38163528473415</v>
       </c>
       <c r="F19">
-        <v>29.65386106488721</v>
+        <v>19.12901781361654</v>
       </c>
       <c r="G19">
-        <v>43.50310779157969</v>
+        <v>19.95045803427763</v>
       </c>
       <c r="H19">
-        <v>11.80283647738457</v>
+        <v>3.576999358472901</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.056265062236115</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.470991613954258</v>
       </c>
       <c r="K19">
-        <v>23.26825554676977</v>
+        <v>15.64385850730962</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.085934933138195</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.37664977232201</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.316034943228783</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.48753546017654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.475565801900647</v>
+        <v>14.81847153492404</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.80303460866254</v>
+        <v>7.003204745127064</v>
       </c>
       <c r="E20">
-        <v>37.15804377850105</v>
+        <v>9.83913845150369</v>
       </c>
       <c r="F20">
-        <v>30.17315800720192</v>
+        <v>20.43120560690303</v>
       </c>
       <c r="G20">
-        <v>44.3481006359971</v>
+        <v>21.69958037128524</v>
       </c>
       <c r="H20">
-        <v>11.92741020701823</v>
+        <v>2.323222667710858</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.969607790188422</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.717379260558685</v>
       </c>
       <c r="K20">
-        <v>23.70749090837437</v>
+        <v>15.97059178822574</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.072577781432263</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.31272681820599</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.167041794895386</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.15914860018508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.016682806570977</v>
+        <v>15.67652652144056</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.689851105677736</v>
+        <v>7.21409312015325</v>
       </c>
       <c r="E21">
-        <v>39.88933495935619</v>
+        <v>9.972289271574262</v>
       </c>
       <c r="F21">
-        <v>31.92640216232448</v>
+        <v>20.75673158512244</v>
       </c>
       <c r="G21">
-        <v>47.22404149780299</v>
+        <v>22.1933184913062</v>
       </c>
       <c r="H21">
-        <v>12.36368661442182</v>
+        <v>2.091319845861487</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.820433764415469</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.694314023883344</v>
       </c>
       <c r="K21">
-        <v>25.14532232154442</v>
+        <v>15.76571813201901</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.114540394260342</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.09429103421459</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.619787719982074</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.2345303023954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.357140438415721</v>
+        <v>16.21428737088091</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.61479376116696</v>
+        <v>7.332610254314878</v>
       </c>
       <c r="E22">
-        <v>41.64790346111068</v>
+        <v>10.03868179761947</v>
       </c>
       <c r="F22">
-        <v>33.16391633706102</v>
+        <v>20.94238507129531</v>
       </c>
       <c r="G22">
-        <v>49.15437734906182</v>
+        <v>22.48698234212019</v>
       </c>
       <c r="H22">
-        <v>12.66280772407072</v>
+        <v>1.954627281988131</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.717712976298705</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.676370638956026</v>
       </c>
       <c r="K22">
-        <v>26.05798763384346</v>
+        <v>15.6293754976144</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.140213125180281</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.58431634751241</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.855805792828843</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.27504539005642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.176620585866619</v>
+        <v>15.94857527043509</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.654963936013206</v>
+        <v>7.273775926051698</v>
       </c>
       <c r="E23">
-        <v>40.71135983455564</v>
+        <v>10.01148348828835</v>
       </c>
       <c r="F23">
-        <v>32.47263158248992</v>
+        <v>20.8670055625463</v>
       </c>
       <c r="G23">
-        <v>48.12385026167019</v>
+        <v>22.36537083128721</v>
       </c>
       <c r="H23">
-        <v>12.50182608360516</v>
+        <v>2.026630771331373</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.762645264184535</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.691867037964977</v>
       </c>
       <c r="K23">
-        <v>25.57326821633579</v>
+        <v>15.71854654645804</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.12803594333109</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.3083405790552</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.713448917881776</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.26818270841902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.466494827432729</v>
+        <v>14.8637563638951</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.804868784890028</v>
+        <v>7.040502469406186</v>
       </c>
       <c r="E24">
-        <v>37.11287471094251</v>
+        <v>9.893467636845383</v>
       </c>
       <c r="F24">
-        <v>30.14461125750948</v>
+        <v>20.55901952238045</v>
       </c>
       <c r="G24">
-        <v>44.3016797213964</v>
+        <v>21.87387706953099</v>
       </c>
       <c r="H24">
-        <v>11.92050432504041</v>
+        <v>2.306561713899207</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.953329130218549</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.747608228178224</v>
       </c>
       <c r="K24">
-        <v>23.6835157852842</v>
+        <v>16.03465522219522</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.078498776865196</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.25067754312593</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.18534364398727</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.23350477677196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.775823257604829</v>
+        <v>13.59154752268564</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.963072194096283</v>
+        <v>6.78226491640837</v>
       </c>
       <c r="E25">
-        <v>33.08380718571328</v>
+        <v>9.762399668211895</v>
       </c>
       <c r="F25">
-        <v>27.66918686283865</v>
+        <v>20.26330866194027</v>
       </c>
       <c r="G25">
-        <v>40.26118688327362</v>
+        <v>21.40281250965699</v>
       </c>
       <c r="H25">
-        <v>11.34877467602096</v>
+        <v>2.62217610995056</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.169969184860181</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.822398013387081</v>
       </c>
       <c r="K25">
-        <v>21.5215205696074</v>
+        <v>16.38817198397265</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.022630608250504</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.0291610637182</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.582034456637528</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.22957019403432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.62439443070902</v>
+        <v>12.29870469373581</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.598890584310567</v>
+        <v>6.472223129545178</v>
       </c>
       <c r="E2">
-        <v>9.683910864625233</v>
+        <v>9.319442021799345</v>
       </c>
       <c r="F2">
-        <v>20.13903359696531</v>
+        <v>19.77452087657416</v>
       </c>
       <c r="G2">
-        <v>21.20026803036225</v>
+        <v>20.16442576616194</v>
       </c>
       <c r="H2">
-        <v>2.864782394314795</v>
+        <v>2.690079887170137</v>
       </c>
       <c r="I2">
-        <v>4.316564801665053</v>
+        <v>4.006015623512825</v>
       </c>
       <c r="J2">
-        <v>8.904690701830267</v>
+        <v>9.196901695734358</v>
       </c>
       <c r="K2">
-        <v>16.70093116018955</v>
+        <v>15.87650823999539</v>
       </c>
       <c r="L2">
-        <v>6.983702616388424</v>
+        <v>12.17965217295336</v>
       </c>
       <c r="M2">
-        <v>14.01626882417668</v>
+        <v>11.20971364804361</v>
       </c>
       <c r="N2">
-        <v>7.06064194699199</v>
+        <v>6.780051877624123</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.03627996445873</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.387530889525296</v>
       </c>
       <c r="Q2">
-        <v>14.29214664017826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.07295950427314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.88518723552363</v>
+        <v>11.57783970218323</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.465981915067495</v>
+        <v>6.345016838143913</v>
       </c>
       <c r="E3">
-        <v>9.616540870632553</v>
+        <v>9.261410819412347</v>
       </c>
       <c r="F3">
-        <v>20.03748296930555</v>
+        <v>19.69951865657253</v>
       </c>
       <c r="G3">
-        <v>21.03868191426282</v>
+        <v>20.07285283839183</v>
       </c>
       <c r="H3">
-        <v>3.03823472926118</v>
+        <v>2.853652778096455</v>
       </c>
       <c r="I3">
-        <v>4.434207641422812</v>
+        <v>4.108133968100637</v>
       </c>
       <c r="J3">
-        <v>8.9584448765142</v>
+        <v>9.223617732500712</v>
       </c>
       <c r="K3">
-        <v>16.89597522564602</v>
+        <v>16.07308870512122</v>
       </c>
       <c r="L3">
-        <v>6.95338979018743</v>
+        <v>12.35512548213157</v>
       </c>
       <c r="M3">
-        <v>13.31428583317128</v>
+        <v>11.37799260211769</v>
       </c>
       <c r="N3">
-        <v>6.718277717434034</v>
+        <v>6.748134964870074</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.29396275425742</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.029105352669523</v>
       </c>
       <c r="Q3">
-        <v>14.32763859339138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.12335181946702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.40432533297874</v>
+        <v>11.1074189413191</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.383261969330585</v>
+        <v>6.265745755491742</v>
       </c>
       <c r="E4">
-        <v>9.573707264497191</v>
+        <v>9.224269659448785</v>
       </c>
       <c r="F4">
-        <v>19.98283473719055</v>
+        <v>19.66021549510129</v>
       </c>
       <c r="G4">
-        <v>20.95178185394315</v>
+        <v>20.03117921617066</v>
       </c>
       <c r="H4">
-        <v>3.148771271220431</v>
+        <v>2.957905397098979</v>
       </c>
       <c r="I4">
-        <v>4.50974486944685</v>
+        <v>4.17396619850808</v>
       </c>
       <c r="J4">
-        <v>8.994424522185993</v>
+        <v>9.241487265150191</v>
       </c>
       <c r="K4">
-        <v>17.01837176482713</v>
+        <v>16.19588624141733</v>
       </c>
       <c r="L4">
-        <v>6.933907725571366</v>
+        <v>12.46835607035405</v>
       </c>
       <c r="M4">
-        <v>12.86473372695558</v>
+        <v>11.49164589672653</v>
       </c>
       <c r="N4">
-        <v>6.501618705262759</v>
+        <v>6.727766648275332</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.81829445169228</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.803099100658491</v>
       </c>
       <c r="Q4">
-        <v>14.35591805030492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.16004566443295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.19499964089172</v>
+        <v>10.90240113380862</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.348061800147847</v>
+        <v>6.232008292124823</v>
       </c>
       <c r="E5">
-        <v>9.553542820345665</v>
+        <v>9.206564606863267</v>
       </c>
       <c r="F5">
-        <v>19.95573836740537</v>
+        <v>19.63953455536823</v>
       </c>
       <c r="G5">
-        <v>20.90918851051562</v>
+        <v>20.0079959853166</v>
       </c>
       <c r="H5">
-        <v>3.19509520410703</v>
+        <v>3.001602236603901</v>
       </c>
       <c r="I5">
-        <v>4.54373122959673</v>
+        <v>4.204360673809494</v>
       </c>
       <c r="J5">
-        <v>9.008171982784202</v>
+        <v>9.247587956355565</v>
       </c>
       <c r="K5">
-        <v>17.06444399602989</v>
+        <v>16.24233116191</v>
       </c>
       <c r="L5">
-        <v>6.925201066264816</v>
+        <v>12.51096411247678</v>
       </c>
       <c r="M5">
-        <v>12.682242374186</v>
+        <v>11.53912709868418</v>
       </c>
       <c r="N5">
-        <v>6.417573468394804</v>
+        <v>6.718790642192292</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.62458616627069</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.714858601773702</v>
       </c>
       <c r="Q5">
-        <v>14.36489196283223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.17252564859776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.15168124712799</v>
+        <v>10.86015750986376</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.340677621804399</v>
+        <v>6.224955877301135</v>
       </c>
       <c r="E6">
-        <v>9.547315603767666</v>
+        <v>9.20093295662979</v>
       </c>
       <c r="F6">
-        <v>19.9431139547796</v>
+        <v>19.62846358999351</v>
       </c>
       <c r="G6">
-        <v>20.88980652840242</v>
+        <v>19.99245953588478</v>
       </c>
       <c r="H6">
-        <v>3.203157449307457</v>
+        <v>3.009211936682096</v>
       </c>
       <c r="I6">
-        <v>4.552439004441496</v>
+        <v>4.21300580814036</v>
       </c>
       <c r="J6">
-        <v>9.008485917799163</v>
+        <v>9.246734930887467</v>
       </c>
       <c r="K6">
-        <v>17.06668194170368</v>
+        <v>16.24504499494159</v>
       </c>
       <c r="L6">
-        <v>6.923081072651375</v>
+        <v>12.51216523016082</v>
       </c>
       <c r="M6">
-        <v>12.65808502460909</v>
+        <v>11.54544453122802</v>
       </c>
       <c r="N6">
-        <v>6.410597481036673</v>
+        <v>6.716710410328555</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.59823530943356</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.7065294492937</v>
       </c>
       <c r="Q6">
-        <v>14.36142374594245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.16994809689185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.37972241407079</v>
+        <v>11.08692531801489</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.378656162549152</v>
+        <v>6.264525071829402</v>
       </c>
       <c r="E7">
-        <v>9.565689030311225</v>
+        <v>9.217369417604123</v>
       </c>
       <c r="F7">
-        <v>19.96004799161571</v>
+        <v>19.62760065117025</v>
       </c>
       <c r="G7">
-        <v>20.91722956378822</v>
+        <v>20.06910510974591</v>
       </c>
       <c r="H7">
-        <v>3.150212326016456</v>
+        <v>2.959724289412312</v>
       </c>
       <c r="I7">
-        <v>4.518154126774949</v>
+        <v>4.183984843559849</v>
       </c>
       <c r="J7">
-        <v>8.989126651725835</v>
+        <v>9.205632007833872</v>
       </c>
       <c r="K7">
-        <v>17.00414352617833</v>
+        <v>16.17989046301683</v>
       </c>
       <c r="L7">
-        <v>6.932024210349088</v>
+        <v>12.44991930846583</v>
       </c>
       <c r="M7">
-        <v>12.87954516771511</v>
+        <v>11.48591208770598</v>
       </c>
       <c r="N7">
-        <v>6.519443529973695</v>
+        <v>6.725777539361737</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.82916669154527</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.817599504069656</v>
       </c>
       <c r="Q7">
-        <v>14.34226990964425</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.13850443383052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.34832463876045</v>
+        <v>12.03972929109482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.548008504651577</v>
+        <v>6.43381590393176</v>
       </c>
       <c r="E8">
-        <v>9.651001903781973</v>
+        <v>9.292461781506125</v>
       </c>
       <c r="F8">
-        <v>20.07319234534709</v>
+        <v>19.68282088131855</v>
       </c>
       <c r="G8">
-        <v>21.0977846093863</v>
+        <v>20.32216797606822</v>
       </c>
       <c r="H8">
-        <v>2.924755093398714</v>
+        <v>2.748021014467488</v>
       </c>
       <c r="I8">
-        <v>4.366402572910822</v>
+        <v>4.053091395964368</v>
       </c>
       <c r="J8">
-        <v>8.915415385946654</v>
+        <v>9.098711313786662</v>
       </c>
       <c r="K8">
-        <v>16.7482699307189</v>
+        <v>15.91696803989975</v>
       </c>
       <c r="L8">
-        <v>6.971266009057489</v>
+        <v>12.21153053094167</v>
       </c>
       <c r="M8">
-        <v>13.79979622277452</v>
+        <v>11.25195041110965</v>
       </c>
       <c r="N8">
-        <v>6.967529425929035</v>
+        <v>6.766360194669864</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.79597349740049</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.281937297189412</v>
       </c>
       <c r="Q8">
-        <v>14.28496997846845</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.04310399510735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.06606566056617</v>
+        <v>13.70869374866004</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.876869827182733</v>
+        <v>6.750289056945455</v>
       </c>
       <c r="E9">
-        <v>9.820000249963009</v>
+        <v>9.438053153190181</v>
       </c>
       <c r="F9">
-        <v>20.396587977687</v>
+        <v>19.92425732743632</v>
       </c>
       <c r="G9">
-        <v>21.61151428123466</v>
+        <v>20.73405419196713</v>
       </c>
       <c r="H9">
-        <v>2.512812379435672</v>
+        <v>2.359809180204998</v>
       </c>
       <c r="I9">
-        <v>4.081850155832903</v>
+        <v>3.804954555493403</v>
       </c>
       <c r="J9">
-        <v>8.804933605801793</v>
+        <v>9.018703454282624</v>
       </c>
       <c r="K9">
-        <v>16.29307537818269</v>
+        <v>15.45146629981897</v>
       </c>
       <c r="L9">
-        <v>7.044353094944812</v>
+        <v>11.82371981369572</v>
       </c>
       <c r="M9">
-        <v>15.424402467419</v>
+        <v>10.89274738382955</v>
       </c>
       <c r="N9">
-        <v>7.760850694358804</v>
+        <v>6.843590416908486</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.51273300353014</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.118254301046633</v>
       </c>
       <c r="Q9">
-        <v>14.25066570112406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.9586603844136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.1491424345683</v>
+        <v>14.77687599399492</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.065698360408525</v>
+        <v>6.948367490227492</v>
       </c>
       <c r="E10">
-        <v>9.877919061240908</v>
+        <v>9.488600849298287</v>
       </c>
       <c r="F10">
-        <v>20.5434685726978</v>
+        <v>19.9568152798219</v>
       </c>
       <c r="G10">
-        <v>21.88005074765612</v>
+        <v>21.35815412123757</v>
       </c>
       <c r="H10">
-        <v>2.255276598102754</v>
+        <v>2.121028019715081</v>
       </c>
       <c r="I10">
-        <v>3.896906255692124</v>
+        <v>3.647526080272182</v>
       </c>
       <c r="J10">
-        <v>8.711630844008544</v>
+        <v>8.77714667227063</v>
       </c>
       <c r="K10">
-        <v>15.91834028497121</v>
+        <v>15.06407608495196</v>
       </c>
       <c r="L10">
-        <v>7.088020366557052</v>
+        <v>11.52829218490164</v>
       </c>
       <c r="M10">
-        <v>16.55709526969587</v>
+        <v>10.63638386660359</v>
       </c>
       <c r="N10">
-        <v>8.248209348487464</v>
+        <v>6.89259430253508</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.68492064710003</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.622789379073344</v>
       </c>
       <c r="Q10">
-        <v>14.18983023682346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.81479753542146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.28082240709843</v>
+        <v>14.99727946072945</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.779827495557746</v>
+        <v>6.706492030840029</v>
       </c>
       <c r="E11">
-        <v>9.513493897694925</v>
+        <v>9.168685045148015</v>
       </c>
       <c r="F11">
-        <v>19.5555571576669</v>
+        <v>18.91497671029739</v>
       </c>
       <c r="G11">
-        <v>20.60805666028796</v>
+        <v>21.04932353866573</v>
       </c>
       <c r="H11">
-        <v>3.104072964256006</v>
+        <v>3.013967633237099</v>
       </c>
       <c r="I11">
-        <v>3.86495973162801</v>
+        <v>3.628006707703073</v>
       </c>
       <c r="J11">
-        <v>8.444034833610942</v>
+        <v>8.260214155958549</v>
       </c>
       <c r="K11">
-        <v>15.38166433489717</v>
+        <v>14.60435842396933</v>
       </c>
       <c r="L11">
-        <v>7.118210593892893</v>
+        <v>11.22197117523169</v>
       </c>
       <c r="M11">
-        <v>17.32142487481933</v>
+        <v>10.27497749431489</v>
       </c>
       <c r="N11">
-        <v>7.911876440777116</v>
+        <v>6.945652213368703</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>17.38247493854265</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.220943353404177</v>
       </c>
       <c r="Q11">
-        <v>13.58787960787499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.15881671337446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.19381112659645</v>
+        <v>14.98003854826506</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.508706176863835</v>
+        <v>6.457422778108104</v>
       </c>
       <c r="E12">
-        <v>9.344352713861172</v>
+        <v>9.02251066879897</v>
       </c>
       <c r="F12">
-        <v>18.7176874916584</v>
+        <v>18.0956052854877</v>
       </c>
       <c r="G12">
-        <v>19.50890038481965</v>
+        <v>20.42606250313095</v>
       </c>
       <c r="H12">
-        <v>4.385266434839441</v>
+        <v>4.322603461130923</v>
       </c>
       <c r="I12">
-        <v>3.859600807294561</v>
+        <v>3.624543476418812</v>
       </c>
       <c r="J12">
-        <v>8.245156951822381</v>
+        <v>8.01336516727924</v>
       </c>
       <c r="K12">
-        <v>15.0841438073033</v>
+        <v>14.37462502442592</v>
       </c>
       <c r="L12">
-        <v>7.21258324775093</v>
+        <v>11.09352966309463</v>
       </c>
       <c r="M12">
-        <v>17.71862641938652</v>
+        <v>10.06918395461368</v>
       </c>
       <c r="N12">
-        <v>7.501320583618115</v>
+        <v>7.051489317557609</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.72279254271359</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.752362179896028</v>
       </c>
       <c r="Q12">
-        <v>13.10930653533699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.68542481003751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.9048114891872</v>
+        <v>14.74829183276046</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.225125405110037</v>
+        <v>6.175027465478643</v>
       </c>
       <c r="E13">
-        <v>9.30693068497883</v>
+        <v>8.996539184949015</v>
       </c>
       <c r="F13">
-        <v>17.90995571562812</v>
+        <v>17.3871457094954</v>
       </c>
       <c r="G13">
-        <v>18.41757663460777</v>
+        <v>19.28186931018294</v>
       </c>
       <c r="H13">
-        <v>5.75599673378124</v>
+        <v>5.706471538000056</v>
       </c>
       <c r="I13">
-        <v>3.886944247340159</v>
+        <v>3.647819397245335</v>
       </c>
       <c r="J13">
-        <v>8.079419114591751</v>
+        <v>7.946759935863692</v>
       </c>
       <c r="K13">
-        <v>14.93230112081804</v>
+        <v>14.28225081727741</v>
       </c>
       <c r="L13">
-        <v>7.353309375754992</v>
+        <v>11.05120353463801</v>
       </c>
       <c r="M13">
-        <v>17.88902691964351</v>
+        <v>9.968587914330852</v>
       </c>
       <c r="N13">
-        <v>7.043982775899014</v>
+        <v>7.196559254672702</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.84412306303892</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.217317589633721</v>
       </c>
       <c r="Q13">
-        <v>12.67645666494666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.32197928916034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.60177172136186</v>
+        <v>14.48094509089431</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.021425388306446</v>
+        <v>5.963942770013748</v>
       </c>
       <c r="E14">
-        <v>9.359213045888616</v>
+        <v>9.052303919168841</v>
       </c>
       <c r="F14">
-        <v>17.35788403258948</v>
+        <v>16.93576472524125</v>
       </c>
       <c r="G14">
-        <v>17.65189418157593</v>
+        <v>18.2525286352489</v>
       </c>
       <c r="H14">
-        <v>6.74100978075263</v>
+        <v>6.696689248131336</v>
       </c>
       <c r="I14">
-        <v>3.92321196007917</v>
+        <v>3.679085629355421</v>
       </c>
       <c r="J14">
-        <v>7.978557143290269</v>
+        <v>7.963917596437033</v>
       </c>
       <c r="K14">
-        <v>14.89882147710689</v>
+        <v>14.27858287461834</v>
       </c>
       <c r="L14">
-        <v>7.479472143376961</v>
+        <v>11.05274043743687</v>
       </c>
       <c r="M14">
-        <v>17.91226913028548</v>
+        <v>9.952044413095006</v>
       </c>
       <c r="N14">
-        <v>6.691680082219141</v>
+        <v>7.321694856160788</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>17.83546342068478</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.811092397365242</v>
       </c>
       <c r="Q14">
-        <v>12.3943805798169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.11293085150312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.47715013422748</v>
+        <v>14.36315294425757</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.967551982975579</v>
+        <v>5.905228028686677</v>
       </c>
       <c r="E15">
-        <v>9.38103414100493</v>
+        <v>9.075044431699146</v>
       </c>
       <c r="F15">
-        <v>17.22462338114618</v>
+        <v>16.84050288875995</v>
       </c>
       <c r="G15">
-        <v>17.45932051279265</v>
+        <v>17.90322821603575</v>
       </c>
       <c r="H15">
-        <v>6.971824918867806</v>
+        <v>6.927938718968687</v>
       </c>
       <c r="I15">
-        <v>3.943055482098271</v>
+        <v>3.697102114796338</v>
       </c>
       <c r="J15">
-        <v>7.959706450874481</v>
+        <v>7.995521197382145</v>
       </c>
       <c r="K15">
-        <v>14.91289864102074</v>
+        <v>14.29719683312098</v>
       </c>
       <c r="L15">
-        <v>7.510991787596483</v>
+        <v>11.06045870126491</v>
       </c>
       <c r="M15">
-        <v>17.87469118815922</v>
+        <v>9.966819205544576</v>
       </c>
       <c r="N15">
-        <v>6.593822224030397</v>
+        <v>7.352310190845525</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>17.79113542540538</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.702809698248388</v>
       </c>
       <c r="Q15">
-        <v>12.33224471744073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.07905317443661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05905608492276</v>
+        <v>13.92447589401121</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.937218869049006</v>
+        <v>5.849991018776176</v>
       </c>
       <c r="E16">
-        <v>9.353763528482018</v>
+        <v>9.053055998618548</v>
       </c>
       <c r="F16">
-        <v>17.30840001364816</v>
+        <v>17.03422496589485</v>
       </c>
       <c r="G16">
-        <v>17.52609288270995</v>
+        <v>17.22711663908819</v>
       </c>
       <c r="H16">
-        <v>6.782444750588551</v>
+        <v>6.731530279889888</v>
       </c>
       <c r="I16">
-        <v>4.022085477106881</v>
+        <v>3.764478176351548</v>
       </c>
       <c r="J16">
-        <v>8.030926317895705</v>
+        <v>8.267336385384272</v>
       </c>
       <c r="K16">
-        <v>15.09377050070573</v>
+        <v>14.46446167308835</v>
       </c>
       <c r="L16">
-        <v>7.456549635709509</v>
+        <v>11.12127864454785</v>
       </c>
       <c r="M16">
-        <v>17.39531193939529</v>
+        <v>10.12924971976026</v>
       </c>
       <c r="N16">
-        <v>6.443323043147562</v>
+        <v>7.29607958191276</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.3233870498643</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.58957966893164</v>
       </c>
       <c r="Q16">
-        <v>12.43859091065222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.27102903505729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.90042320657261</v>
+        <v>13.73331233412614</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.022169938455246</v>
+        <v>5.922261479700632</v>
       </c>
       <c r="E17">
-        <v>9.292461392309729</v>
+        <v>8.99135267182462</v>
       </c>
       <c r="F17">
-        <v>17.66426072122056</v>
+        <v>17.41113862679108</v>
       </c>
       <c r="G17">
-        <v>17.98607983853142</v>
+        <v>17.36026229880198</v>
       </c>
       <c r="H17">
-        <v>6.085120214347985</v>
+        <v>6.02464529741986</v>
       </c>
       <c r="I17">
-        <v>4.063997231738841</v>
+        <v>3.800434806775181</v>
       </c>
       <c r="J17">
-        <v>8.138461379561356</v>
+        <v>8.458750787995037</v>
       </c>
       <c r="K17">
-        <v>15.24565680860275</v>
+        <v>14.59798853645341</v>
       </c>
       <c r="L17">
-        <v>7.342407300041569</v>
+        <v>11.18354564923755</v>
       </c>
       <c r="M17">
-        <v>17.00765647534924</v>
+        <v>10.25430886789736</v>
       </c>
       <c r="N17">
-        <v>6.521542662621267</v>
+        <v>7.181221307870311</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.95873507651385</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.725043789815474</v>
       </c>
       <c r="Q17">
-        <v>12.66843058446339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.52010505873459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.96757392925393</v>
+        <v>13.74875376623256</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.223981127066634</v>
+        <v>6.113767896253881</v>
       </c>
       <c r="E18">
-        <v>9.268017007210142</v>
+        <v>8.957547275785602</v>
       </c>
       <c r="F18">
-        <v>18.31457748506076</v>
+        <v>18.02888665350315</v>
       </c>
       <c r="G18">
-        <v>18.85934329786333</v>
+        <v>18.05300244896177</v>
       </c>
       <c r="H18">
-        <v>4.911905073244135</v>
+        <v>4.835287502944755</v>
       </c>
       <c r="I18">
-        <v>4.068578552081386</v>
+        <v>3.801607956070905</v>
       </c>
       <c r="J18">
-        <v>8.294124987143183</v>
+        <v>8.637272404036423</v>
       </c>
       <c r="K18">
-        <v>15.42481298652879</v>
+        <v>14.74641936483784</v>
       </c>
       <c r="L18">
-        <v>7.194767199395412</v>
+        <v>11.27793298649935</v>
       </c>
       <c r="M18">
-        <v>16.64932870366547</v>
+        <v>10.37789364822491</v>
       </c>
       <c r="N18">
-        <v>6.833112271787285</v>
+        <v>7.031489326085234</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.64111394025776</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.081279730396274</v>
       </c>
       <c r="Q18">
-        <v>13.04196277049519</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.87481539561944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.1758773794864</v>
+        <v>13.89467172252429</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.505769153630991</v>
+        <v>6.385350175337965</v>
       </c>
       <c r="E19">
-        <v>9.38163528473415</v>
+        <v>9.048609759499248</v>
       </c>
       <c r="F19">
-        <v>19.12901781361654</v>
+        <v>18.77779488900651</v>
       </c>
       <c r="G19">
-        <v>19.95045803427763</v>
+        <v>19.02885792804592</v>
       </c>
       <c r="H19">
-        <v>3.576999358472901</v>
+        <v>3.473484440223479</v>
       </c>
       <c r="I19">
-        <v>4.056265062236115</v>
+        <v>3.791707842803529</v>
       </c>
       <c r="J19">
-        <v>8.470991613954258</v>
+        <v>8.802986714082781</v>
       </c>
       <c r="K19">
-        <v>15.64385850730962</v>
+        <v>14.91725863041861</v>
       </c>
       <c r="L19">
-        <v>7.085934933138195</v>
+        <v>11.40577982999812</v>
       </c>
       <c r="M19">
-        <v>16.37664977232201</v>
+        <v>10.50814291157351</v>
       </c>
       <c r="N19">
-        <v>7.316034943228783</v>
+        <v>6.914896604211021</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.41958172086093</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.611149390234939</v>
       </c>
       <c r="Q19">
-        <v>13.48753546017654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.27867203517142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.81847153492404</v>
+        <v>14.44550393685346</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.003204745127064</v>
+        <v>6.873896242535146</v>
       </c>
       <c r="E20">
-        <v>9.83913845150369</v>
+        <v>9.452149173476004</v>
       </c>
       <c r="F20">
-        <v>20.43120560690303</v>
+        <v>19.91876033797963</v>
       </c>
       <c r="G20">
-        <v>21.69958037128524</v>
+        <v>20.84008829252022</v>
       </c>
       <c r="H20">
-        <v>2.323222667710858</v>
+        <v>2.182673356937864</v>
       </c>
       <c r="I20">
-        <v>3.969607790188422</v>
+        <v>3.717278075844062</v>
       </c>
       <c r="J20">
-        <v>8.717379260558685</v>
+        <v>8.927071680497967</v>
       </c>
       <c r="K20">
-        <v>15.97059178822574</v>
+        <v>15.13666302546599</v>
       </c>
       <c r="L20">
-        <v>7.072577781432263</v>
+        <v>11.58133473505152</v>
       </c>
       <c r="M20">
-        <v>16.31272681820599</v>
+        <v>10.67902033845582</v>
       </c>
       <c r="N20">
-        <v>8.167041794895386</v>
+        <v>6.877944890910707</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.43637616176707</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.537628671366813</v>
       </c>
       <c r="Q20">
-        <v>14.15914860018508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.84095579476881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.67652652144056</v>
+        <v>15.32032813974692</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.21409312015325</v>
+        <v>7.144378939224097</v>
       </c>
       <c r="E21">
-        <v>9.972289271574262</v>
+        <v>9.582890205224876</v>
       </c>
       <c r="F21">
-        <v>20.75673158512244</v>
+        <v>19.93282719396303</v>
       </c>
       <c r="G21">
-        <v>22.1933184913062</v>
+        <v>22.91546570791904</v>
       </c>
       <c r="H21">
-        <v>2.091319845861487</v>
+        <v>1.970513060274735</v>
       </c>
       <c r="I21">
-        <v>3.820433764415469</v>
+        <v>3.592362295536634</v>
       </c>
       <c r="J21">
-        <v>8.694314023883344</v>
+        <v>8.297962316591276</v>
       </c>
       <c r="K21">
-        <v>15.76571813201901</v>
+        <v>14.85460873005209</v>
       </c>
       <c r="L21">
-        <v>7.114540394260342</v>
+        <v>11.38271380918721</v>
       </c>
       <c r="M21">
-        <v>17.09429103421459</v>
+        <v>10.50033189621703</v>
       </c>
       <c r="N21">
-        <v>8.619787719982074</v>
+        <v>6.91453496271031</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.21451064185383</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.991451011785749</v>
       </c>
       <c r="Q21">
-        <v>14.2345303023954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.67358444345637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.21428737088091</v>
+        <v>15.87368034064472</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.332610254314878</v>
+        <v>7.307195744922669</v>
       </c>
       <c r="E22">
-        <v>10.03868179761947</v>
+        <v>9.652683258310791</v>
       </c>
       <c r="F22">
-        <v>20.94238507129531</v>
+        <v>19.90119053794343</v>
       </c>
       <c r="G22">
-        <v>22.48698234212019</v>
+        <v>24.37074162551962</v>
       </c>
       <c r="H22">
-        <v>1.954627281988131</v>
+        <v>1.846486024223039</v>
       </c>
       <c r="I22">
-        <v>3.717712976298705</v>
+        <v>3.502931089592585</v>
       </c>
       <c r="J22">
-        <v>8.676370638956026</v>
+        <v>7.928868883503918</v>
       </c>
       <c r="K22">
-        <v>15.6293754976144</v>
+        <v>14.66565808535247</v>
       </c>
       <c r="L22">
-        <v>7.140213125180281</v>
+        <v>11.25762973137101</v>
       </c>
       <c r="M22">
-        <v>17.58431634751241</v>
+        <v>10.38538273117494</v>
       </c>
       <c r="N22">
-        <v>8.855805792828843</v>
+        <v>6.938114390442365</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.69707606459036</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.224554192616964</v>
       </c>
       <c r="Q22">
-        <v>14.27504539005642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.54170714770359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.94857527043509</v>
+        <v>15.59277772742094</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.273775926051698</v>
+        <v>7.216594417368779</v>
       </c>
       <c r="E23">
-        <v>10.01148348828835</v>
+        <v>9.620732084586276</v>
       </c>
       <c r="F23">
-        <v>20.8670055625463</v>
+        <v>19.96856491207554</v>
       </c>
       <c r="G23">
-        <v>22.36537083128721</v>
+        <v>23.43822388492194</v>
       </c>
       <c r="H23">
-        <v>2.026630771331373</v>
+        <v>1.911086080915902</v>
       </c>
       <c r="I23">
-        <v>3.762645264184535</v>
+        <v>3.538432000915003</v>
       </c>
       <c r="J23">
-        <v>8.691867037964977</v>
+        <v>8.175036462109119</v>
       </c>
       <c r="K23">
-        <v>15.71854654645804</v>
+        <v>14.78594113801289</v>
       </c>
       <c r="L23">
-        <v>7.12803594333109</v>
+        <v>11.33548285411223</v>
       </c>
       <c r="M23">
-        <v>17.3083405790552</v>
+        <v>10.46387661129565</v>
       </c>
       <c r="N23">
-        <v>8.713448917881776</v>
+        <v>6.927113275289138</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.43171220259899</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.088357704145231</v>
       </c>
       <c r="Q23">
-        <v>14.26818270841902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.64892263546087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.8637563638951</v>
+        <v>14.4824134728739</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.040502469406186</v>
+        <v>6.90911301703432</v>
       </c>
       <c r="E24">
-        <v>9.893467636845383</v>
+        <v>9.500659291238824</v>
       </c>
       <c r="F24">
-        <v>20.55901952238045</v>
+        <v>20.03784147480785</v>
       </c>
       <c r="G24">
-        <v>21.87387706953099</v>
+        <v>20.98889700983154</v>
       </c>
       <c r="H24">
-        <v>2.306561713899207</v>
+        <v>2.165678281621652</v>
       </c>
       <c r="I24">
-        <v>3.953329130218549</v>
+        <v>3.698000464572617</v>
       </c>
       <c r="J24">
-        <v>8.747608228178224</v>
+        <v>8.95832033930053</v>
       </c>
       <c r="K24">
-        <v>16.03465522219522</v>
+        <v>15.18833484273041</v>
       </c>
       <c r="L24">
-        <v>7.078498776865196</v>
+        <v>11.61998046547767</v>
       </c>
       <c r="M24">
-        <v>16.25067754312593</v>
+        <v>10.71872545631727</v>
       </c>
       <c r="N24">
-        <v>8.18534364398727</v>
+        <v>6.880807949990736</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.38072629631385</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.563338678302632</v>
       </c>
       <c r="Q24">
-        <v>14.23350477677196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.90984412939723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59154752268564</v>
+        <v>13.24595010526005</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.78226491640837</v>
+        <v>6.655250064472183</v>
       </c>
       <c r="E25">
-        <v>9.762399668211895</v>
+        <v>9.387215784222381</v>
       </c>
       <c r="F25">
-        <v>20.26330866194027</v>
+        <v>19.83226270700624</v>
       </c>
       <c r="G25">
-        <v>21.40281250965699</v>
+        <v>20.45356992306567</v>
       </c>
       <c r="H25">
-        <v>2.62217610995056</v>
+        <v>2.462316973321501</v>
       </c>
       <c r="I25">
-        <v>4.169969184860181</v>
+        <v>3.885674589145</v>
       </c>
       <c r="J25">
-        <v>8.822398013387081</v>
+        <v>9.072885950341908</v>
       </c>
       <c r="K25">
-        <v>16.38817198397265</v>
+        <v>15.55743546068381</v>
       </c>
       <c r="L25">
-        <v>7.022630608250504</v>
+        <v>11.90771773849438</v>
       </c>
       <c r="M25">
-        <v>15.0291610637182</v>
+        <v>10.96892028076418</v>
       </c>
       <c r="N25">
-        <v>7.582034456637528</v>
+        <v>6.82170488882918</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.09608465028685</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.927166514305211</v>
       </c>
       <c r="Q25">
-        <v>14.22957019403432</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.96605861331887</v>
       </c>
     </row>
   </sheetData>
